--- a/Stocks/TEM.xlsx
+++ b/Stocks/TEM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56719469-A6D9-48BD-8620-384E456ACBBD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +36,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Data and services</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>PRETAX</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI </t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Tecnhology RD</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +197,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +539,659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E29C81-97FB-420F-B4DF-442BF911F655}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>58.92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <f>168.072456+5.043789</f>
+        <v>173.11624499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <f>+L2*L3</f>
+        <v>10200.009155399999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>151.603+262.613+67.183</f>
+        <v>481.399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>467.14400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>+L4-L5+L6</f>
+        <v>10185.7541554</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B75B3B-A836-4379-8809-2E1DB20C5D54}">
+  <dimension ref="B2:XFD20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>91.924000000000007</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>102.569</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>112.324</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>193.804</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>40.493000000000002</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>43.250999999999998</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>53.645000000000003</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4">
+        <v>61.933</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <f>+I3+I4</f>
+        <v>132.417</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <f>+K3+K4</f>
+        <v>145.82</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <f>+M3+M4</f>
+        <v>165.96899999999999</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <f>+O3+O4</f>
+        <v>255.73699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>46.960999999999999</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>52.835000000000001</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>68.323999999999998</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>84.783000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>13.807</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
+        <v>15.288</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>22.132000000000001</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>15.750999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <f>+I6+I7</f>
+        <v>60.768000000000001</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <f>+K6+K7</f>
+        <v>68.123000000000005</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6">
+        <v>77.908000000000001</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <f>+O6+O7</f>
+        <v>100.53400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <f>+I5-I8</f>
+        <v>71.649000000000001</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f>+K5-K8</f>
+        <v>77.696999999999989</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <f>+M5-M8</f>
+        <v>88.060999999999993</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <f>+O5-O8</f>
+        <v>155.20299999999997</v>
+      </c>
+      <c r="XFD9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6">
+        <v>23.427</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>27.067</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6">
+        <v>77.908000000000001</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>33.390999999999998</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>22.170999999999999</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>24.34</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>68.025000000000006</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>35.874000000000002</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>71.188999999999993</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>79.563999999999993</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>463.072</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>154.62700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <f>+I10+I11+I12</f>
+        <v>116.78699999999999</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <f>+K10+K11+K12</f>
+        <v>130.971</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <f>+M10+M11+M12</f>
+        <v>609.005</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <f>+O10+O11+O12</f>
+        <v>223.892</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <f>+I9-I13</f>
+        <v>-45.137999999999991</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <f>+K9-K13</f>
+        <v>-53.274000000000015</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <f>+M9-M13</f>
+        <v>-520.94399999999996</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <f>+O9-O13</f>
+        <v>-68.689000000000021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <f>1.957-11.712+-0.766</f>
+        <v>-10.520999999999999</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
+        <f>1.031-13.238+0.749</f>
+        <v>-11.457999999999998</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
+        <f>1.718-13.295-7.048</f>
+        <v>-18.625</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <f>1.813-18.003-27.455</f>
+        <v>-43.644999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <f>+I14+I15</f>
+        <v>-55.658999999999992</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <f>+K14+K15</f>
+        <v>-64.732000000000014</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <f>+M14+M15</f>
+        <v>-539.56899999999996</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
+        <f>+O14+O15</f>
+        <v>-112.33400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4">
+        <v>46.18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <f>+I16+I17</f>
+        <v>-55.661999999999992</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <f>+K16+K17</f>
+        <v>-64.743000000000009</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <f>+M16+M17</f>
+        <v>-539.66399999999999</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5">
+        <f>+O16+O17</f>
+        <v>-66.154000000000025</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <f>+I18/I20</f>
+        <v>-0.87814343861420485</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4">
+        <f>+K18/K20</f>
+        <v>-1.0206999842345894</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <f>+M18/M20</f>
+        <v>-6.5552869723656233</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4">
+        <f>+O18/O20</f>
+        <v>-0.38798634652153019</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>63.386000000000003</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>63.43</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>82.325000000000003</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4">
+        <v>170.506</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stocks/TEM.xlsx
+++ b/Stocks/TEM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56719469-A6D9-48BD-8620-384E456ACBBD}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6AF476-6EC1-4278-BE79-976599406419}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -154,12 +154,123 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Restricted Cash</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Licensing fees</t>
+  </si>
+  <si>
+    <t>OLL</t>
+  </si>
+  <si>
+    <t>Convertibles</t>
+  </si>
+  <si>
+    <t>Interest payable</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assets  </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>NI y/y</t>
+  </si>
+  <si>
+    <t>rev q/q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>cff</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>CFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +316,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +659,7 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,9 +700,9 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
-        <f>151.603+262.613+67.183</f>
-        <v>481.399</v>
+      <c r="L5">
+        <f>151.603+67.183</f>
+        <v>218.786</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -602,7 +719,7 @@
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>10185.7541554</v>
+        <v>10448.367155399999</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -623,22 +740,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B75B3B-A836-4379-8809-2E1DB20C5D54}">
-  <dimension ref="B2:XFD20"/>
+  <dimension ref="A1:XFD57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -679,454 +818,1159 @@
       <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>2022</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AE2" si="0">+X2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AI2" si="1">+AE2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2" si="2">+AI2+1</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>82.058000000000007</v>
+      </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>91.924000000000007</v>
+      </c>
       <c r="I3" s="4">
-        <v>91.924000000000007</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>96.814999999999998</v>
+      </c>
       <c r="K3" s="4">
         <v>102.569</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>112.324</v>
+      </c>
       <c r="M3" s="4">
-        <v>112.324</v>
-      </c>
-      <c r="N3" s="4"/>
+        <v>116.422</v>
+      </c>
+      <c r="N3" s="4">
+        <f>451.749-M3-L3-K3</f>
+        <v>120.43399999999998</v>
+      </c>
       <c r="O3" s="4">
         <v>193.804</v>
       </c>
-    </row>
-    <row r="4" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>197.98400000000001</v>
+      </c>
+      <c r="X3">
+        <v>363.02199999999999</v>
+      </c>
+      <c r="Y3">
+        <v>451.74900000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>33.566000000000003</v>
+      </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>40.493000000000002</v>
+      </c>
       <c r="I4" s="4">
-        <v>40.493000000000002</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>39.241999999999997</v>
+      </c>
       <c r="K4" s="4">
         <v>43.250999999999998</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>53.645000000000003</v>
+      </c>
       <c r="M4" s="4">
-        <v>53.645000000000003</v>
-      </c>
-      <c r="N4" s="4"/>
+        <v>64.507000000000005</v>
+      </c>
+      <c r="N4" s="4">
+        <f>241.649-M4-L4-K4</f>
+        <v>80.245999999999981</v>
+      </c>
       <c r="O4" s="4">
         <v>61.933</v>
       </c>
-    </row>
-    <row r="5" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>122.684</v>
+      </c>
+      <c r="X4">
+        <v>168.8</v>
+      </c>
+      <c r="Y4">
+        <v>241.649</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <f>+F3+F4</f>
+        <v>115.62400000000001</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <f>+H3+H4</f>
+        <v>132.417</v>
+      </c>
       <c r="I5" s="5">
         <f>+I3+I4</f>
-        <v>132.417</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>136.05699999999999</v>
+      </c>
       <c r="K5" s="5">
         <f>+K3+K4</f>
         <v>145.82</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <f>+L3+L4</f>
+        <v>165.96899999999999</v>
+      </c>
       <c r="M5" s="5">
         <f>+M3+M4</f>
-        <v>165.96899999999999</v>
-      </c>
-      <c r="N5" s="5"/>
+        <v>180.929</v>
+      </c>
+      <c r="N5" s="5">
+        <f>+N3+N4</f>
+        <v>200.67999999999995</v>
+      </c>
       <c r="O5" s="5">
         <f>+O3+O4</f>
         <v>255.73699999999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W5" s="2">
+        <f>+W3+W4</f>
+        <v>320.66800000000001</v>
+      </c>
+      <c r="X5" s="2">
+        <f>+X3+X4</f>
+        <v>531.822</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>+Y3+Y4</f>
+        <v>693.39800000000002</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>+Y5*1.3</f>
+        <v>901.41740000000004</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AE5" si="3">+Z5*1.3</f>
+        <v>1171.8426200000001</v>
+      </c>
+      <c r="AB5" s="2">
+        <f t="shared" si="3"/>
+        <v>1523.3954060000003</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="3"/>
+        <v>1980.4140278000004</v>
+      </c>
+      <c r="AD5" s="2">
+        <f t="shared" si="3"/>
+        <v>2574.5382361400007</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="3"/>
+        <v>3346.8997069820011</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" ref="AF5:AI5" si="4">+AE5*1.3</f>
+        <v>4350.9696190766017</v>
+      </c>
+      <c r="AG5" s="2">
+        <f t="shared" si="4"/>
+        <v>5656.2605047995821</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="4"/>
+        <v>7353.1386562394573</v>
+      </c>
+      <c r="AI5" s="2">
+        <f t="shared" si="4"/>
+        <v>9559.080253111295</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f t="shared" ref="AJ5" si="5">+AI5*1.3</f>
+        <v>12426.804329044684</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>45.28</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>46.960999999999999</v>
+      </c>
       <c r="I6" s="4">
-        <v>46.960999999999999</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>46.54</v>
+      </c>
       <c r="K6" s="4">
         <v>52.835000000000001</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>68.323999999999998</v>
+      </c>
       <c r="M6" s="4">
-        <v>68.323999999999998</v>
-      </c>
-      <c r="N6" s="4"/>
+        <v>60.125999999999998</v>
+      </c>
+      <c r="N6" s="4">
+        <f>243.467-M6-L6-K6</f>
+        <v>62.182000000000009</v>
+      </c>
       <c r="O6" s="4">
         <v>84.783000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>150.255</v>
+      </c>
+      <c r="X6">
+        <v>189.16499999999999</v>
+      </c>
+      <c r="Y6">
+        <v>243.46700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>11.393000000000001</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>13.807</v>
+      </c>
       <c r="I7" s="4">
-        <v>13.807</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>15.49</v>
+      </c>
       <c r="K7" s="4">
         <v>15.288</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>22.132000000000001</v>
+      </c>
       <c r="M7" s="4">
-        <v>22.132000000000001</v>
-      </c>
-      <c r="N7" s="4"/>
+        <v>14.964</v>
+      </c>
+      <c r="N7" s="4">
+        <f>68.818-M7-L7-K7</f>
+        <v>16.433999999999997</v>
+      </c>
       <c r="O7" s="4">
         <v>15.750999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:16 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>40.226999999999997</v>
+      </c>
+      <c r="X7">
+        <v>56.481999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>68.817999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <f>+F6+F7</f>
+        <v>56.673000000000002</v>
+      </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <f>+H6+H7</f>
+        <v>60.768000000000001</v>
+      </c>
       <c r="I8" s="6">
         <f>+I6+I7</f>
-        <v>60.768000000000001</v>
-      </c>
-      <c r="J8" s="6"/>
+        <v>62.03</v>
+      </c>
       <c r="K8" s="6">
         <f>+K6+K7</f>
         <v>68.123000000000005</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>77.908000000000001</v>
+      </c>
       <c r="M8" s="6">
-        <v>77.908000000000001</v>
-      </c>
-      <c r="N8" s="6"/>
+        <f>+M6+M7</f>
+        <v>75.09</v>
+      </c>
+      <c r="N8" s="6">
+        <f>+N6+N7</f>
+        <v>78.616000000000014</v>
+      </c>
       <c r="O8" s="6">
         <f>+O6+O7</f>
         <v>100.53400000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="3">
+        <f>+W6+W7</f>
+        <v>190.482</v>
+      </c>
+      <c r="X8" s="3">
+        <f>+X6+X7</f>
+        <v>245.64699999999999</v>
+      </c>
+      <c r="Y8" s="3">
+        <f>+Y6+Y7</f>
+        <v>312.28500000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <f>+F5-F8</f>
+        <v>58.951000000000008</v>
+      </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <f>+H5-H8</f>
+        <v>71.649000000000001</v>
+      </c>
       <c r="I9" s="5">
         <f>+I5-I8</f>
-        <v>71.649000000000001</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>74.026999999999987</v>
+      </c>
       <c r="K9" s="5">
         <f>+K5-K8</f>
         <v>77.696999999999989</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <f>+L5-L8</f>
+        <v>88.060999999999993</v>
+      </c>
       <c r="M9" s="5">
         <f>+M5-M8</f>
-        <v>88.060999999999993</v>
-      </c>
-      <c r="N9" s="5"/>
+        <v>105.839</v>
+      </c>
+      <c r="N9" s="5">
+        <f>+N5-N8</f>
+        <v>122.06399999999994</v>
+      </c>
       <c r="O9" s="5">
         <f>+O5-O8</f>
         <v>155.20299999999997</v>
       </c>
+      <c r="W9" s="2">
+        <f>+W5-W8</f>
+        <v>130.18600000000001</v>
+      </c>
+      <c r="X9" s="2">
+        <f>+X5-X8</f>
+        <v>286.17500000000001</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>+Y5-Y8</f>
+        <v>381.113</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>+Z5*0.6</f>
+        <v>540.85044000000005</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" ref="AA9:AE9" si="6">+AA5*0.6</f>
+        <v>703.10557200000005</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="6"/>
+        <v>914.03724360000012</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="6"/>
+        <v>1188.2484166800002</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="6"/>
+        <v>1544.7229416840003</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="6"/>
+        <v>2008.1398241892007</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" ref="AF9:AI9" si="7">+AF5*0.6</f>
+        <v>2610.5817714459608</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="7"/>
+        <v>3393.756302879749</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="7"/>
+        <v>4411.8831937436744</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="7"/>
+        <v>5735.4481518667772</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" ref="AJ9" si="8">+AJ5*0.6</f>
+        <v>7456.08259742681</v>
+      </c>
       <c r="XFD9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="6">
+        <v>22.902000000000001</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="6">
+        <v>23.427</v>
+      </c>
       <c r="I10" s="6">
-        <v>23.427</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>24.155999999999999</v>
+      </c>
       <c r="K10" s="4">
         <v>27.067</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6">
+      <c r="L10" s="6">
         <v>77.908000000000001</v>
       </c>
-      <c r="N10" s="4"/>
+      <c r="M10" s="4">
+        <v>30.68</v>
+      </c>
+      <c r="N10" s="4">
+        <f>167.519-M10-L10-K10</f>
+        <v>31.863999999999997</v>
+      </c>
       <c r="O10" s="4">
         <v>33.390999999999998</v>
       </c>
       <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W10" s="3">
+        <v>79.082999999999998</v>
+      </c>
+      <c r="X10" s="3">
+        <v>95.155000000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>167.51900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>20.863</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>22.170999999999999</v>
+      </c>
       <c r="I11" s="4">
-        <v>22.170999999999999</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>23.234000000000002</v>
+      </c>
       <c r="K11" s="4">
         <v>24.34</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>68.025000000000006</v>
+      </c>
       <c r="M11" s="4">
-        <v>68.025000000000006</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>27.347999999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <f>149.325-M11-L11-K11</f>
+        <v>29.611999999999984</v>
+      </c>
       <c r="O11" s="4">
         <v>35.874000000000002</v>
       </c>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="W11" s="3">
+        <v>83.158000000000001</v>
+      </c>
+      <c r="X11" s="3">
+        <v>90.343000000000004</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>149.32499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>69.046999999999997</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>71.188999999999993</v>
+      </c>
       <c r="I12" s="4">
-        <v>71.188999999999993</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>71.426000000000002</v>
+      </c>
       <c r="K12" s="4">
         <v>79.563999999999993</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>463.072</v>
+      </c>
       <c r="M12" s="4">
-        <v>463.072</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>101.42700000000001</v>
+      </c>
+      <c r="N12" s="4">
+        <f>755.351-M12-L12-K12</f>
+        <v>111.28799999999998</v>
+      </c>
       <c r="O12" s="4">
         <v>154.62700000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:16 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="W12" s="3">
+        <v>233.37700000000001</v>
+      </c>
+      <c r="X12" s="3">
+        <v>296.76</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>755.351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <f>+F10+F11+F12</f>
+        <v>112.812</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <f>+H10+H11+H12</f>
+        <v>116.78699999999999</v>
+      </c>
       <c r="I13" s="4">
         <f>+I10+I11+I12</f>
-        <v>116.78699999999999</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>118.816</v>
+      </c>
       <c r="K13" s="4">
         <f>+K10+K11+K12</f>
         <v>130.971</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <f>+L10+L11+L12</f>
+        <v>609.005</v>
+      </c>
       <c r="M13" s="4">
         <f>+M10+M11+M12</f>
-        <v>609.005</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>159.45500000000001</v>
+      </c>
+      <c r="N13" s="4">
+        <f>+N10+N11+N12</f>
+        <v>172.76399999999995</v>
+      </c>
       <c r="O13" s="4">
         <f>+O10+O11+O12</f>
         <v>223.892</v>
       </c>
-    </row>
-    <row r="14" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="W13">
+        <f>+W12+W11+W10</f>
+        <v>395.61800000000005</v>
+      </c>
+      <c r="X13">
+        <f>+X12+X11+X10</f>
+        <v>482.25800000000004</v>
+      </c>
+      <c r="Y13">
+        <f>+Y12+Y11+Y10</f>
+        <v>1072.1949999999999</v>
+      </c>
+      <c r="Z13">
+        <f>+Y13*1.1</f>
+        <v>1179.4145000000001</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13:AE13" si="9">+Z13*1.1</f>
+        <v>1297.3559500000001</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="9"/>
+        <v>1427.0915450000002</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="9"/>
+        <v>1569.8006995000003</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="9"/>
+        <v>1726.7807694500004</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="9"/>
+        <v>1899.4588463950006</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ref="AF13:AI13" si="10">+AE13*1.1</f>
+        <v>2089.4047310345009</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="10"/>
+        <v>2298.345204137951</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="10"/>
+        <v>2528.1797245517464</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="10"/>
+        <v>2780.997697006921</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" ref="AJ13" si="11">+AI13*1.1</f>
+        <v>3059.0974667076134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <f>+F9-F13</f>
+        <v>-53.86099999999999</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <f>+H9-H13</f>
+        <v>-45.137999999999991</v>
+      </c>
       <c r="I14" s="5">
         <f>+I9-I13</f>
-        <v>-45.137999999999991</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>-44.789000000000016</v>
+      </c>
       <c r="K14" s="5">
         <f>+K9-K13</f>
         <v>-53.274000000000015</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <f>+L9-L13</f>
+        <v>-520.94399999999996</v>
+      </c>
       <c r="M14" s="5">
         <f>+M9-M13</f>
-        <v>-520.94399999999996</v>
-      </c>
-      <c r="N14" s="5"/>
+        <v>-53.616000000000014</v>
+      </c>
+      <c r="N14" s="5">
+        <f>+N9-N13</f>
+        <v>-50.700000000000017</v>
+      </c>
       <c r="O14" s="5">
         <f>+O9-O13</f>
         <v>-68.689000000000021</v>
       </c>
-    </row>
-    <row r="15" spans="2:16 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="10">
+        <f>+NPV(R13,Z18:BF18)</f>
+        <v>18108.022937169764</v>
+      </c>
+      <c r="W14" s="2">
+        <f>+W9-W13</f>
+        <v>-265.43200000000002</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+X9-X13</f>
+        <v>-196.08300000000003</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>+Y9-Y13</f>
+        <v>-691.08199999999988</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" ref="Z14:AE14" si="12">+Z9-Z13</f>
+        <v>-638.56406000000004</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="12"/>
+        <v>-594.25037800000007</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="12"/>
+        <v>-513.0543014000001</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="12"/>
+        <v>-381.55228282000007</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="12"/>
+        <v>-182.05782776600017</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="12"/>
+        <v>108.68097779420009</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" ref="AF14" si="13">+AF9-AF13</f>
+        <v>521.17704041145998</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" ref="AG14" si="14">+AG9-AG13</f>
+        <v>1095.411098741798</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" ref="AH14" si="15">+AH9-AH13</f>
+        <v>1883.703469191928</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" ref="AI14:AJ14" si="16">+AI9-AI13</f>
+        <v>2954.4504548598561</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="16"/>
+        <v>4396.9851307191966</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+      <c r="F15" s="6">
+        <f>2.424-9.191+6.388</f>
+        <v>-0.37900000000000134</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="6">
         <f>1.957-11.712+-0.766</f>
         <v>-10.520999999999999</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6">
+        <f>1.483-12.342-2.287</f>
+        <v>-13.146000000000001</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K15" s="6">
         <f>1.031-13.238+0.749</f>
         <v>-11.457999999999998</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <f>-1.718-13.295-7.048</f>
+        <v>-22.061</v>
+      </c>
       <c r="M15" s="6">
-        <f>1.718-13.295-7.048</f>
-        <v>-18.625</v>
-      </c>
-      <c r="N15" s="6"/>
+        <f>4.789-13.761-11.522</f>
+        <v>-20.494</v>
+      </c>
+      <c r="N15" s="6">
+        <f>11.084-53.653+32.336-M15-L15-K15</f>
+        <v>43.779999999999994</v>
+      </c>
       <c r="O15" s="6">
         <f>1.813-18.003-27.455</f>
         <v>-43.644999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="2:16 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="3">
+        <f>+R14/main!L3</f>
+        <v>104.60036801959149</v>
+      </c>
+      <c r="W15" s="3">
+        <f>3.032-21.894-4.846</f>
+        <v>-23.707999999999998</v>
+      </c>
+      <c r="X15" s="3">
+        <f>7.601-46.869+21.822</f>
+        <v>-17.446000000000002</v>
+      </c>
+      <c r="Y15" s="3">
+        <f>11.084-53.653+32.336</f>
+        <v>-10.233000000000004</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>+V28*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <f>+W28*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>+X28*0.05</f>
+        <v>-2.9483500000000009</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>+Y28*0.05</f>
+        <v>-38.027399999999993</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>+Z28*0.05</f>
+        <v>-68.333051679999997</v>
+      </c>
+      <c r="AE15" s="3">
+        <f>+AA28*0.05</f>
+        <v>-95.936253863999994</v>
+      </c>
+      <c r="AF15" s="3">
+        <f>+AB28*0.05</f>
+        <v>-118.99427470320001</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>+AC28*0.05</f>
+        <v>-136.40851359415998</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>+AD28*0.05</f>
+        <v>-144.29388874140801</v>
+      </c>
+      <c r="AI15" s="3">
+        <f>+AE28*0.05</f>
+        <v>-137.63223307233039</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f>+AF28*0.05</f>
+        <v>-109.69134947257949</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <f>+F14+F15</f>
+        <v>-54.239999999999995</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <f>+H14+H15</f>
+        <v>-55.658999999999992</v>
+      </c>
       <c r="I16" s="5">
         <f>+I14+I15</f>
-        <v>-55.658999999999992</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>-57.935000000000016</v>
+      </c>
       <c r="K16" s="5">
         <f>+K14+K15</f>
         <v>-64.732000000000014</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <f>+L14+L15</f>
+        <v>-543.005</v>
+      </c>
       <c r="M16" s="5">
         <f>+M14+M15</f>
-        <v>-539.56899999999996</v>
-      </c>
-      <c r="N16" s="5"/>
+        <v>-74.110000000000014</v>
+      </c>
+      <c r="N16" s="5">
+        <f>+N14+N15</f>
+        <v>-6.920000000000023</v>
+      </c>
       <c r="O16" s="5">
         <f>+O14+O15</f>
         <v>-112.33400000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="11">
+        <f>+R15/main!L2-1</f>
+        <v>0.7752947729054902</v>
+      </c>
+      <c r="W16" s="2">
+        <f>+W14+W15</f>
+        <v>-289.14</v>
+      </c>
+      <c r="X16" s="2">
+        <f>+X14+X15</f>
+        <v>-213.52900000000002</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>+Y14+Y15</f>
+        <v>-701.31499999999983</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" ref="Z16:AE16" si="17">+Z14+Z15</f>
+        <v>-638.56406000000004</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="17"/>
+        <v>-594.25037800000007</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="17"/>
+        <v>-516.0026514000001</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="17"/>
+        <v>-419.57968282000007</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="17"/>
+        <v>-250.39087944600016</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="17"/>
+        <v>12.744723930200095</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" ref="AF16" si="18">+AF14+AF15</f>
+        <v>402.18276570825998</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" ref="AG16" si="19">+AG14+AG15</f>
+        <v>959.002585147638</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" ref="AH16" si="20">+AH14+AH15</f>
+        <v>1739.40958045052</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" ref="AI16:AJ16" si="21">+AI14+AI15</f>
+        <v>2816.8182217875255</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="21"/>
+        <v>4287.2937812466171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="F17" s="7">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H17" s="7">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="I17" s="7">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="K17" s="7">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="L17" s="7">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="M17" s="7">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <f>-0.266-M17-L17-K17</f>
+        <v>-0.12200000000000001</v>
+      </c>
+      <c r="O17" s="7">
         <v>46.18</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="7">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="X17" s="7">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="Z17" s="7">
+        <f>+Z9*0.3*0.2</f>
+        <v>32.451026400000003</v>
+      </c>
+      <c r="AA17" s="7">
+        <f>+AA9*0.3*0.2</f>
+        <v>42.186334320000007</v>
+      </c>
+      <c r="AB17" s="7">
+        <f>+AB9*0.3*0.2</f>
+        <v>54.842234616000013</v>
+      </c>
+      <c r="AC17" s="7">
+        <f>+AC9*0.3*0.2</f>
+        <v>71.294905000800014</v>
+      </c>
+      <c r="AD17" s="7">
+        <f>+AD9*0.3*0.2</f>
+        <v>92.683376501040016</v>
+      </c>
+      <c r="AE17" s="7">
+        <f>+AE9*0.3*0.2</f>
+        <v>120.48838945135203</v>
+      </c>
+      <c r="AF17" s="7">
+        <f>+AF9*0.3*0.2</f>
+        <v>156.63490628675765</v>
+      </c>
+      <c r="AG17" s="7">
+        <f>+AG9*0.3*0.2</f>
+        <v>203.62537817278496</v>
+      </c>
+      <c r="AH17" s="7">
+        <f>+AH9*0.3*0.2</f>
+        <v>264.71299162462049</v>
+      </c>
+      <c r="AI17" s="7">
+        <f>+AI9*0.3*0.2</f>
+        <v>344.12688911200667</v>
+      </c>
+      <c r="AJ17" s="7">
+        <f>+AJ9*0.3*0.2</f>
+        <v>447.36495584560862</v>
+      </c>
+    </row>
+    <row r="18" spans="2:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <f>+F16+F17</f>
+        <v>-54.250999999999998</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <f>+H16+H17</f>
+        <v>-55.661999999999992</v>
+      </c>
       <c r="I18" s="5">
         <f>+I16+I17</f>
-        <v>-55.661999999999992</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>-58.000000000000014</v>
+      </c>
       <c r="K18" s="5">
         <f>+K16+K17</f>
         <v>-64.743000000000009</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <f>+L16+L17</f>
+        <v>-543.1</v>
+      </c>
       <c r="M18" s="5">
         <f>+M16+M17</f>
-        <v>-539.66399999999999</v>
-      </c>
-      <c r="N18" s="5"/>
+        <v>-74.14800000000001</v>
+      </c>
+      <c r="N18" s="5">
+        <f>+N16+N17</f>
+        <v>-7.0420000000000229</v>
+      </c>
       <c r="O18" s="5">
         <f>+O16+O17</f>
         <v>-66.154000000000025</v>
@@ -1134,61 +1978,904 @@
       <c r="Q18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="W18" s="8">
+        <f>+W16+W17</f>
+        <v>-289.20599999999996</v>
+      </c>
+      <c r="X18" s="8">
+        <f>+X16+X17</f>
+        <v>-213.81700000000004</v>
+      </c>
+      <c r="Y18" s="8">
+        <f>+Y16+Y17</f>
+        <v>-701.58099999999979</v>
+      </c>
+      <c r="Z18" s="8">
+        <f>+Z16+Z17</f>
+        <v>-606.11303359999999</v>
+      </c>
+      <c r="AA18" s="8">
+        <f>+AA16+AA17</f>
+        <v>-552.06404368000005</v>
+      </c>
+      <c r="AB18" s="8">
+        <f>+AB16+AB17</f>
+        <v>-461.16041678400006</v>
+      </c>
+      <c r="AC18" s="8">
+        <f>+AC16+AC17</f>
+        <v>-348.28477781920003</v>
+      </c>
+      <c r="AD18" s="8">
+        <f>+AD16+AD17</f>
+        <v>-157.70750294496014</v>
+      </c>
+      <c r="AE18" s="8">
+        <f>+AE16+AE17</f>
+        <v>133.23311338155213</v>
+      </c>
+      <c r="AF18" s="8">
+        <f>+AF16+AF17</f>
+        <v>558.81767199501769</v>
+      </c>
+      <c r="AG18" s="8">
+        <f>+AG16+AG17</f>
+        <v>1162.6279633204231</v>
+      </c>
+      <c r="AH18" s="8">
+        <f>+AH16+AH17</f>
+        <v>2004.1225720751404</v>
+      </c>
+      <c r="AI18" s="8">
+        <f>+AI16+AI17</f>
+        <v>3160.9451108995322</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f>+AJ16+AJ17</f>
+        <v>4734.6587370922261</v>
+      </c>
+      <c r="AK18" s="2">
+        <f>+AJ18*(1-$R$12)</f>
+        <v>4639.9655623503813</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" ref="AL18:BF18" si="22">+AK18*(1-$R$12)</f>
+        <v>4547.1662511033737</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" si="22"/>
+        <v>4456.2229260813065</v>
+      </c>
+      <c r="AN18" s="2">
+        <f t="shared" si="22"/>
+        <v>4367.0984675596801</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="22"/>
+        <v>4279.7564982084868</v>
+      </c>
+      <c r="AP18" s="2">
+        <f t="shared" si="22"/>
+        <v>4194.1613682443167</v>
+      </c>
+      <c r="AQ18" s="2">
+        <f t="shared" si="22"/>
+        <v>4110.2781408794299</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="22"/>
+        <v>4028.0725780618413</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="22"/>
+        <v>3947.5111265006044</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" si="22"/>
+        <v>3868.5609039705923</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" si="22"/>
+        <v>3791.1896858911805</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" si="22"/>
+        <v>3715.3658921733568</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" si="22"/>
+        <v>3641.0585743298898</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" si="22"/>
+        <v>3568.2374028432919</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" si="22"/>
+        <v>3496.8726547864258</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f t="shared" si="22"/>
+        <v>3426.9352016906973</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" si="22"/>
+        <v>3358.3964976568832</v>
+      </c>
+      <c r="BB18" s="2">
+        <f t="shared" si="22"/>
+        <v>3291.2285677037453</v>
+      </c>
+      <c r="BC18" s="2">
+        <f t="shared" si="22"/>
+        <v>3225.4039963496703</v>
+      </c>
+      <c r="BD18" s="2">
+        <f t="shared" si="22"/>
+        <v>3160.8959164226767</v>
+      </c>
+      <c r="BE18" s="2">
+        <f t="shared" si="22"/>
+        <v>3097.6779980942233</v>
+      </c>
+      <c r="BF18" s="2">
+        <f t="shared" si="22"/>
+        <v>3035.7244381323389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="F19" s="7">
+        <f>+F18/F20</f>
+        <v>-0.85800819244334081</v>
+      </c>
+      <c r="H19" s="7">
+        <f>+H18/H20</f>
+        <v>-0.87814343861420485</v>
+      </c>
+      <c r="I19" s="7">
         <f>+I18/I20</f>
-        <v>-0.87814343861420485</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+        <v>-0.91647441772271931</v>
+      </c>
+      <c r="K19" s="7">
         <f>+K18/K20</f>
         <v>-1.0206999842345894</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="7">
+        <f>+L18/L20</f>
+        <v>-6.597023990282417</v>
+      </c>
+      <c r="M19" s="7">
         <f>+M18/M20</f>
-        <v>-6.5552869723656233</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
+        <v>-0.44772117962466496</v>
+      </c>
+      <c r="N19" s="7">
+        <f>+N18/N20</f>
+        <v>-5.8757269564201811E-2</v>
+      </c>
+      <c r="O19" s="7">
         <f>+O18/O20</f>
         <v>-0.38798634652153019</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="W19" s="7">
+        <f>+W18/W20</f>
+        <v>-4.5882408935144054</v>
+      </c>
+      <c r="X19" s="7">
+        <f>+X18/X20</f>
+        <v>-3.3775155593466661</v>
+      </c>
+      <c r="Y19" s="7">
+        <f>+Y18/Y20</f>
+        <v>-5.8538744586938547</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" ref="Z19:AE19" si="23">+Z18/Z20</f>
+        <v>-5.0573057230348182</v>
+      </c>
+      <c r="AA19" s="7">
+        <f t="shared" si="23"/>
+        <v>-4.6063299959115227</v>
+      </c>
+      <c r="AB19" s="7">
+        <f t="shared" si="23"/>
+        <v>-3.8478453452594521</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="23"/>
+        <v>-2.9060299027876746</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="23"/>
+        <v>-1.3158850131829229</v>
+      </c>
+      <c r="AE19" s="7">
+        <f t="shared" si="23"/>
+        <v>1.1116748023058358</v>
+      </c>
+      <c r="AF19" s="7">
+        <f t="shared" ref="AF19" si="24">+AF18/AF20</f>
+        <v>4.6626811403934756</v>
+      </c>
+      <c r="AG19" s="7">
+        <f t="shared" ref="AG19" si="25">+AG18/AG20</f>
+        <v>9.7007731672389674</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" ref="AH19" si="26">+AH18/AH20</f>
+        <v>16.722063363692147</v>
+      </c>
+      <c r="AI19" s="7">
+        <f t="shared" ref="AI19:AJ19" si="27">+AI18/AI20</f>
+        <v>26.374397040438652</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f t="shared" si="27"/>
+        <v>39.505200186002604</v>
+      </c>
+    </row>
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>63.228999999999999</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>63.386000000000003</v>
+      </c>
       <c r="I20" s="4">
-        <v>63.386000000000003</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>63.286000000000001</v>
+      </c>
       <c r="K20" s="4">
         <v>63.43</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>82.325000000000003</v>
+      </c>
       <c r="M20" s="4">
-        <v>82.325000000000003</v>
-      </c>
-      <c r="N20" s="4"/>
+        <v>165.61199999999999</v>
+      </c>
+      <c r="N20" s="4">
+        <v>119.849</v>
+      </c>
       <c r="O20" s="4">
         <v>170.506</v>
+      </c>
+      <c r="W20" s="7">
+        <v>63.031999999999996</v>
+      </c>
+      <c r="X20" s="7">
+        <v>63.305999999999997</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>119.849</v>
+      </c>
+      <c r="Z20" s="7">
+        <f>+Y20</f>
+        <v>119.849</v>
+      </c>
+      <c r="AA20" s="7">
+        <f t="shared" ref="AA20:AE20" si="28">+Z20</f>
+        <v>119.849</v>
+      </c>
+      <c r="AB20" s="7">
+        <f t="shared" si="28"/>
+        <v>119.849</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="28"/>
+        <v>119.849</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="28"/>
+        <v>119.849</v>
+      </c>
+      <c r="AE20" s="7">
+        <f t="shared" si="28"/>
+        <v>119.849</v>
+      </c>
+      <c r="AF20" s="7">
+        <f t="shared" ref="AF20:AI20" si="29">+AE20</f>
+        <v>119.849</v>
+      </c>
+      <c r="AG20" s="7">
+        <f t="shared" si="29"/>
+        <v>119.849</v>
+      </c>
+      <c r="AH20" s="7">
+        <f t="shared" si="29"/>
+        <v>119.849</v>
+      </c>
+      <c r="AI20" s="7">
+        <f t="shared" si="29"/>
+        <v>119.849</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f t="shared" ref="AJ20" si="30">+AI20</f>
+        <v>119.849</v>
+      </c>
+    </row>
+    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <f>+I5/H5-1</f>
+        <v>2.7488917586110384E-2</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="9">
+        <f>+L5/K5-1</f>
+        <v>0.13817720477300788</v>
+      </c>
+      <c r="M22" s="9">
+        <f>+M5/L5-1</f>
+        <v>9.0137314799751733E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <f>+N5/M5-1</f>
+        <v>0.10916436834338294</v>
+      </c>
+      <c r="O22" s="9">
+        <f>+O5/N5-1</f>
+        <v>0.27435220251146131</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9">
+        <f>+F9/F5</f>
+        <v>0.50985089600774924</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>+H9/H5</f>
+        <v>0.54108611432066878</v>
+      </c>
+      <c r="I23" s="9">
+        <f>+I9/I5</f>
+        <v>0.54408813952975588</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <f>+K9/K5</f>
+        <v>0.53282814428747771</v>
+      </c>
+      <c r="L23" s="9">
+        <f>+L9/L5</f>
+        <v>0.53058703733829804</v>
+      </c>
+      <c r="M23" s="9">
+        <f>+M9/M5</f>
+        <v>0.58497532181131828</v>
+      </c>
+      <c r="N23" s="9">
+        <f>+N9/N5</f>
+        <v>0.60825194339246547</v>
+      </c>
+      <c r="O23" s="9">
+        <f>+O9/O5</f>
+        <v>0.60688519846561106</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9">
+        <f>+F14/F5</f>
+        <v>-0.46582889365529634</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <f>+H14/H5</f>
+        <v>-0.34087768186864215</v>
+      </c>
+      <c r="I24" s="9">
+        <f>+I14/I5</f>
+        <v>-0.32919291179432164</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9">
+        <f>+K14/K5</f>
+        <v>-0.36534083116170635</v>
+      </c>
+      <c r="L24" s="9">
+        <f>+L14/L5</f>
+        <v>-3.1388030294814091</v>
+      </c>
+      <c r="M24" s="9">
+        <f>+M14/M5</f>
+        <v>-0.29633723725881428</v>
+      </c>
+      <c r="N24" s="9">
+        <f>+N14/N5</f>
+        <v>-0.25264102053019749</v>
+      </c>
+      <c r="O24" s="9">
+        <f>+O14/O5</f>
+        <v>-0.26859234291479145</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9">
+        <f>+F17/F16</f>
+        <v>2.028023598820059E-4</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="9">
+        <f>+H17/H16</f>
+        <v>5.3899638872419567E-5</v>
+      </c>
+      <c r="I25" s="9">
+        <f>+I17/I16</f>
+        <v>1.1219470095797011E-3</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9">
+        <f>+K17/K16</f>
+        <v>1.6993140950380024E-4</v>
+      </c>
+      <c r="L25" s="9">
+        <f>+L17/L16</f>
+        <v>1.7495234850507823E-4</v>
+      </c>
+      <c r="M25" s="9">
+        <f>+M17/M16</f>
+        <v>5.1275131561192807E-4</v>
+      </c>
+      <c r="N25" s="9">
+        <f>+N17/N16</f>
+        <v>1.7630057803468151E-2</v>
+      </c>
+      <c r="O25" s="9">
+        <f>+O17/O16</f>
+        <v>-0.41109548311285982</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" ref="L26" si="31">+L18/H18</f>
+        <v>9.7571053860802728</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" ref="M26" si="32">+M18/I18</f>
+        <v>1.278413793103448</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="9">
+        <f>+O18/K18</f>
+        <v>1.0217938618846827</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7">
+        <f>+X30-X41</f>
+        <v>-58.967000000000013</v>
+      </c>
+      <c r="Y28" s="7">
+        <f>+X28+Y18</f>
+        <v>-760.54799999999977</v>
+      </c>
+      <c r="Z28" s="7">
+        <f t="shared" ref="Z28:AJ28" si="33">+Y28+Z18</f>
+        <v>-1366.6610335999999</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="33"/>
+        <v>-1918.7250772799998</v>
+      </c>
+      <c r="AB28" s="7">
+        <f t="shared" si="33"/>
+        <v>-2379.8854940639999</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" si="33"/>
+        <v>-2728.1702718831998</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="33"/>
+        <v>-2885.87777482816</v>
+      </c>
+      <c r="AE28" s="7">
+        <f t="shared" si="33"/>
+        <v>-2752.6446614466076</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="33"/>
+        <v>-2193.8269894515897</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="33"/>
+        <v>-1031.1990261311666</v>
+      </c>
+      <c r="AH28" s="7">
+        <f t="shared" si="33"/>
+        <v>972.92354594397375</v>
+      </c>
+      <c r="AI28" s="7">
+        <f t="shared" si="33"/>
+        <v>4133.868656843506</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f t="shared" si="33"/>
+        <v>8868.5273939357321</v>
+      </c>
+    </row>
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30">
+        <f>165.767+31.807</f>
+        <v>197.57399999999998</v>
+      </c>
+      <c r="Y30">
+        <f>340.954+107.309</f>
+        <v>448.26300000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31">
+        <v>154.81899999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y32">
+        <v>38.386000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y33">
+        <v>26.135000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34">
+        <v>58.055999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y35">
+        <f>73.343+11.716</f>
+        <v>85.058999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y36">
+        <f>8.305+91.45</f>
+        <v>99.754999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y37">
+        <v>14.762</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y38">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y39" s="2">
+        <f>+SUM(Y30:Y38)</f>
+        <v>926.11599999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>256.541</v>
+      </c>
+      <c r="Y41">
+        <v>267.24400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y42">
+        <v>53.804000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y43">
+        <v>130.40700000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y44">
+        <f>75.981+15.955</f>
+        <v>91.935999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y45">
+        <v>6.9640000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y47">
+        <v>26.199000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y48">
+        <v>168.19200000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y49">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y50">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y51">
+        <f>23.932+6.71</f>
+        <v>30.641999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>+SUM(Y41:Y51)</f>
+        <v>863.31800000000021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W54">
+        <v>-168.20400000000001</v>
+      </c>
+      <c r="X54">
+        <v>-214.339</v>
+      </c>
+      <c r="Y54">
+        <v>-189.04499999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W55">
+        <v>-57.939</v>
+      </c>
+      <c r="X55">
+        <v>40.314999999999998</v>
+      </c>
+      <c r="Y55">
+        <v>-130.392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W56">
+        <v>251.39099999999999</v>
+      </c>
+      <c r="X56">
+        <v>117.547</v>
+      </c>
+      <c r="Y56">
+        <v>494.32900000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W57">
+        <f t="shared" ref="W57:X57" si="34">+W54+W55+W56</f>
+        <v>25.24799999999999</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="34"/>
+        <v>-56.477000000000004</v>
+      </c>
+      <c r="Y57">
+        <f>+Y54+Y55+Y56</f>
+        <v>174.892</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TEM.xlsx
+++ b/Stocks/TEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E6AF476-6EC1-4278-BE79-976599406419}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B457069B-4D73-480D-818F-7BA0A0CE771A}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -231,9 +231,6 @@
     <t>NI y/y</t>
   </si>
   <si>
-    <t>rev q/q</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>CFC</t>
+  </si>
+  <si>
+    <t>rev y/y</t>
   </si>
 </sst>
 </file>
@@ -317,11 +317,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,11 +743,11 @@
   <dimension ref="A1:XFD57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
         <v>59</v>
       </c>
@@ -777,7 +777,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -818,63 +818,96 @@
       <c r="O2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="11">
         <v>2022</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="11">
         <f>+W2+1</f>
         <v>2023</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="11">
         <f t="shared" ref="Y2:AE2" si="0">+X2+1</f>
         <v>2024</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="11">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="11">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="11">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="11">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="11">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="11">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="11">
         <f t="shared" ref="AF2:AI2" si="1">+AE2+1</f>
         <v>2031</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="11">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="11">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="11">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="11">
         <f t="shared" ref="AJ2" si="2">+AI2+1</f>
         <v>2035</v>
       </c>
-    </row>
-    <row r="3" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+    </row>
+    <row r="3" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
@@ -907,17 +940,61 @@
       <c r="O3" s="4">
         <v>193.804</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="11">
         <v>197.98400000000001</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="11">
         <v>363.02199999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="11">
         <v>451.74900000000002</v>
       </c>
-    </row>
-    <row r="4" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
+    </row>
+    <row r="4" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -950,17 +1027,61 @@
       <c r="O4" s="4">
         <v>61.933</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="11">
         <v>122.684</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="11">
         <v>168.8</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="11">
         <v>241.649</v>
       </c>
-    </row>
-    <row r="5" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+    </row>
+    <row r="5" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1000,64 +1121,82 @@
         <f>+O3+O4</f>
         <v>255.73699999999999</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="12">
         <f>+W3+W4</f>
         <v>320.66800000000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="12">
         <f>+X3+X4</f>
         <v>531.822</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="12">
         <f>+Y3+Y4</f>
         <v>693.39800000000002</v>
       </c>
-      <c r="Z5" s="2">
-        <f>+Y5*1.3</f>
-        <v>901.41740000000004</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="shared" ref="AA5:AE5" si="3">+Z5*1.3</f>
-        <v>1171.8426200000001</v>
-      </c>
-      <c r="AB5" s="2">
+      <c r="Z5" s="12">
+        <f>+Y5*1.35</f>
+        <v>936.08730000000014</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" ref="AA5:AC5" si="3">+Z5*1.35</f>
+        <v>1263.7178550000003</v>
+      </c>
+      <c r="AB5" s="12">
         <f t="shared" si="3"/>
-        <v>1523.3954060000003</v>
-      </c>
-      <c r="AC5" s="2">
+        <v>1706.0191042500005</v>
+      </c>
+      <c r="AC5" s="12">
         <f t="shared" si="3"/>
-        <v>1980.4140278000004</v>
-      </c>
-      <c r="AD5" s="2">
-        <f t="shared" si="3"/>
-        <v>2574.5382361400007</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="3"/>
-        <v>3346.8997069820011</v>
-      </c>
-      <c r="AF5" s="2">
-        <f t="shared" ref="AF5:AI5" si="4">+AE5*1.3</f>
-        <v>4350.9696190766017</v>
-      </c>
-      <c r="AG5" s="2">
+        <v>2303.1257907375007</v>
+      </c>
+      <c r="AD5" s="12">
+        <f t="shared" ref="AA5:AE5" si="4">+AC5*1.3</f>
+        <v>2994.0635279587509</v>
+      </c>
+      <c r="AE5" s="12">
         <f t="shared" si="4"/>
-        <v>5656.2605047995821</v>
-      </c>
-      <c r="AH5" s="2">
-        <f t="shared" si="4"/>
-        <v>7353.1386562394573</v>
-      </c>
-      <c r="AI5" s="2">
-        <f t="shared" si="4"/>
-        <v>9559.080253111295</v>
-      </c>
-      <c r="AJ5" s="2">
-        <f t="shared" ref="AJ5" si="5">+AI5*1.3</f>
-        <v>12426.804329044684</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+        <v>3892.2825863463763</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+    </row>
+    <row r="6" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1090,17 +1229,79 @@
       <c r="O6" s="4">
         <v>84.783000000000001</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="11">
         <v>150.255</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="11">
         <v>189.16499999999999</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="11">
         <v>243.46700000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Z6" s="11">
+        <f>+Y6*1.2</f>
+        <v>292.16039999999998</v>
+      </c>
+      <c r="AA6" s="11">
+        <f t="shared" ref="AA6:AC6" si="5">+Z6*1.2</f>
+        <v>350.59247999999997</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="5"/>
+        <v>420.71097599999996</v>
+      </c>
+      <c r="AC6" s="11">
+        <f t="shared" si="5"/>
+        <v>504.85317119999991</v>
+      </c>
+      <c r="AD6" s="11">
+        <f>+AC6*1.15</f>
+        <v>580.58114687999989</v>
+      </c>
+      <c r="AE6" s="11">
+        <f t="shared" ref="AE6" si="6">+AD6*1.15</f>
+        <v>667.66831891199979</v>
+      </c>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
+      <c r="BL6" s="11"/>
+      <c r="BM6" s="11"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="11"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="11"/>
+    </row>
+    <row r="7" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1133,17 +1334,79 @@
       <c r="O7" s="4">
         <v>15.750999999999999</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="11">
         <v>40.226999999999997</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="11">
         <v>56.481999999999999</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="11">
         <v>68.817999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:36 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="11">
+        <f t="shared" ref="Z7:AE8" si="7">+Y7*1.2</f>
+        <v>82.581599999999995</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="7"/>
+        <v>99.097919999999988</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="7"/>
+        <v>118.91750399999998</v>
+      </c>
+      <c r="AC7" s="11">
+        <f t="shared" si="7"/>
+        <v>142.70100479999996</v>
+      </c>
+      <c r="AD7" s="11">
+        <f t="shared" si="7"/>
+        <v>171.24120575999996</v>
+      </c>
+      <c r="AE7" s="11">
+        <f t="shared" si="7"/>
+        <v>205.48944691199995</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+    </row>
+    <row r="8" spans="2:69 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1182,20 +1445,82 @@
         <f>+O6+O7</f>
         <v>100.53400000000001</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="1">
         <f>+W6+W7</f>
         <v>190.482</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="1">
         <f>+X6+X7</f>
         <v>245.64699999999999</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="1">
         <f>+Y6+Y7</f>
         <v>312.28500000000003</v>
       </c>
-    </row>
-    <row r="9" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="11">
+        <f t="shared" si="7"/>
+        <v>374.74200000000002</v>
+      </c>
+      <c r="AA8" s="11">
+        <f t="shared" si="7"/>
+        <v>449.69040000000001</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="7"/>
+        <v>539.62847999999997</v>
+      </c>
+      <c r="AC8" s="11">
+        <f t="shared" si="7"/>
+        <v>647.55417599999998</v>
+      </c>
+      <c r="AD8" s="11">
+        <f t="shared" si="7"/>
+        <v>777.06501119999996</v>
+      </c>
+      <c r="AE8" s="11">
+        <f t="shared" si="7"/>
+        <v>932.47801343999993</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+    </row>
+    <row r="9" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1235,67 +1560,85 @@
         <f>+O5-O8</f>
         <v>155.20299999999997</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="12">
         <f>+W5-W8</f>
         <v>130.18600000000001</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="12">
         <f>+X5-X8</f>
         <v>286.17500000000001</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="12">
         <f>+Y5-Y8</f>
         <v>381.113</v>
       </c>
-      <c r="Z9" s="2">
-        <f>+Z5*0.6</f>
-        <v>540.85044000000005</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" ref="AA9:AE9" si="6">+AA5*0.6</f>
-        <v>703.10557200000005</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="6"/>
-        <v>914.03724360000012</v>
-      </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="6"/>
-        <v>1188.2484166800002</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="6"/>
-        <v>1544.7229416840003</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="6"/>
-        <v>2008.1398241892007</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" ref="AF9:AI9" si="7">+AF5*0.6</f>
-        <v>2610.5817714459608</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="7"/>
-        <v>3393.756302879749</v>
-      </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="7"/>
-        <v>4411.8831937436744</v>
-      </c>
-      <c r="AI9" s="2">
-        <f t="shared" si="7"/>
-        <v>5735.4481518667772</v>
-      </c>
-      <c r="AJ9" s="2">
-        <f t="shared" ref="AJ9" si="8">+AJ5*0.6</f>
-        <v>7456.08259742681</v>
-      </c>
+      <c r="Z9" s="12">
+        <f t="shared" ref="Z9:AE9" si="8">+Z5-Z8</f>
+        <v>561.34530000000018</v>
+      </c>
+      <c r="AA9" s="12">
+        <f t="shared" si="8"/>
+        <v>814.02745500000037</v>
+      </c>
+      <c r="AB9" s="12">
+        <f t="shared" si="8"/>
+        <v>1166.3906242500007</v>
+      </c>
+      <c r="AC9" s="12">
+        <f t="shared" si="8"/>
+        <v>1655.5716147375006</v>
+      </c>
+      <c r="AD9" s="12">
+        <f t="shared" si="8"/>
+        <v>2216.9985167587511</v>
+      </c>
+      <c r="AE9" s="12">
+        <f t="shared" si="8"/>
+        <v>2959.8045729063765</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
       <c r="XFD9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1329,17 +1672,79 @@
         <v>33.390999999999998</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="W10" s="3">
+      <c r="W10" s="1">
         <v>79.082999999999998</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="1">
         <v>95.155000000000001</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="1">
         <v>167.51900000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Z10" s="11">
+        <f>+Y10*1.3</f>
+        <v>217.77470000000002</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" ref="AA10:AE10" si="9">+Z10*1.3</f>
+        <v>283.10711000000003</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="9"/>
+        <v>368.03924300000006</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="9"/>
+        <v>478.45101590000007</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="9"/>
+        <v>621.98632067000017</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="9"/>
+        <v>808.58221687100024</v>
+      </c>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="11"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11"/>
+    </row>
+    <row r="11" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1373,17 +1778,79 @@
         <v>35.874000000000002</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="W11" s="3">
+      <c r="W11" s="1">
         <v>83.158000000000001</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="1">
         <v>90.343000000000004</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="1">
         <v>149.32499999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Z11" s="11">
+        <f>+Y11*1.2</f>
+        <v>179.18999999999997</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" ref="AA11:AE11" si="10">+Z11*1.2</f>
+        <v>215.02799999999996</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="10"/>
+        <v>258.03359999999992</v>
+      </c>
+      <c r="AC11" s="11">
+        <f t="shared" si="10"/>
+        <v>309.64031999999992</v>
+      </c>
+      <c r="AD11" s="11">
+        <f t="shared" si="10"/>
+        <v>371.56838399999987</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="10"/>
+        <v>445.88206079999981</v>
+      </c>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
+      <c r="BQ11" s="11"/>
+    </row>
+    <row r="12" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1417,22 +1884,84 @@
         <v>154.62700000000001</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="W12" s="3">
+        <v>66</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="W12" s="1">
         <v>233.37700000000001</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="1">
         <v>296.76</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="1">
         <v>755.351</v>
       </c>
-    </row>
-    <row r="13" spans="2:36 16384:16384" x14ac:dyDescent="0.25">
+      <c r="Z12" s="11">
+        <f>+Y12*1.15</f>
+        <v>868.65364999999997</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" ref="AA12:AE12" si="11">+Z12*1.15</f>
+        <v>998.95169749999991</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="11"/>
+        <v>1148.7944521249999</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="11"/>
+        <v>1321.1136199437499</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="11"/>
+        <v>1519.2806629353122</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="11"/>
+        <v>1747.172762375609</v>
+      </c>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
+      <c r="BM12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="11"/>
+      <c r="BP12" s="11"/>
+      <c r="BQ12" s="11"/>
+    </row>
+    <row r="13" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1475,67 +2004,85 @@
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>0.09</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="11">
         <f>+W12+W11+W10</f>
         <v>395.61800000000005</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="11">
         <f>+X12+X11+X10</f>
         <v>482.25800000000004</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="11">
         <f>+Y12+Y11+Y10</f>
         <v>1072.1949999999999</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="11">
         <f>+Y13*1.1</f>
         <v>1179.4145000000001</v>
       </c>
-      <c r="AA13">
-        <f t="shared" ref="AA13:AE13" si="9">+Z13*1.1</f>
+      <c r="AA13" s="11">
+        <f t="shared" ref="AA13:AE13" si="12">+Z13*1.1</f>
         <v>1297.3559500000001</v>
       </c>
-      <c r="AB13">
-        <f t="shared" si="9"/>
+      <c r="AB13" s="11">
+        <f t="shared" si="12"/>
         <v>1427.0915450000002</v>
       </c>
-      <c r="AC13">
-        <f t="shared" si="9"/>
+      <c r="AC13" s="11">
+        <f t="shared" si="12"/>
         <v>1569.8006995000003</v>
       </c>
-      <c r="AD13">
-        <f t="shared" si="9"/>
+      <c r="AD13" s="11">
+        <f t="shared" si="12"/>
         <v>1726.7807694500004</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="9"/>
+      <c r="AE13" s="11">
+        <f t="shared" si="12"/>
         <v>1899.4588463950006</v>
       </c>
-      <c r="AF13">
-        <f t="shared" ref="AF13:AI13" si="10">+AE13*1.1</f>
-        <v>2089.4047310345009</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="10"/>
-        <v>2298.345204137951</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="10"/>
-        <v>2528.1797245517464</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="10"/>
-        <v>2780.997697006921</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" ref="AJ13" si="11">+AI13*1.1</f>
-        <v>3059.0974667076134</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
+      <c r="BM13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="11"/>
+      <c r="BP13" s="11"/>
+      <c r="BQ13" s="11"/>
+    </row>
+    <row r="14" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1576,70 +2123,88 @@
         <v>-68.689000000000021</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="10">
+        <v>65</v>
+      </c>
+      <c r="R14" s="9">
         <f>+NPV(R13,Z18:BF18)</f>
-        <v>18108.022937169764</v>
-      </c>
-      <c r="W14" s="2">
+        <v>6324.3281279209286</v>
+      </c>
+      <c r="W14" s="12">
         <f>+W9-W13</f>
         <v>-265.43200000000002</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="12">
         <f>+X9-X13</f>
         <v>-196.08300000000003</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="12">
         <f>+Y9-Y13</f>
         <v>-691.08199999999988</v>
       </c>
-      <c r="Z14" s="2">
-        <f t="shared" ref="Z14:AE14" si="12">+Z9-Z13</f>
-        <v>-638.56406000000004</v>
-      </c>
-      <c r="AA14" s="2">
-        <f t="shared" si="12"/>
-        <v>-594.25037800000007</v>
-      </c>
-      <c r="AB14" s="2">
-        <f t="shared" si="12"/>
-        <v>-513.0543014000001</v>
-      </c>
-      <c r="AC14" s="2">
-        <f t="shared" si="12"/>
-        <v>-381.55228282000007</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="12"/>
-        <v>-182.05782776600017</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="12"/>
-        <v>108.68097779420009</v>
-      </c>
-      <c r="AF14" s="2">
-        <f t="shared" ref="AF14" si="13">+AF9-AF13</f>
-        <v>521.17704041145998</v>
-      </c>
-      <c r="AG14" s="2">
-        <f t="shared" ref="AG14" si="14">+AG9-AG13</f>
-        <v>1095.411098741798</v>
-      </c>
-      <c r="AH14" s="2">
-        <f t="shared" ref="AH14" si="15">+AH9-AH13</f>
-        <v>1883.703469191928</v>
-      </c>
-      <c r="AI14" s="2">
-        <f t="shared" ref="AI14:AJ14" si="16">+AI9-AI13</f>
-        <v>2954.4504548598561</v>
-      </c>
-      <c r="AJ14" s="2">
-        <f t="shared" si="16"/>
-        <v>4396.9851307191966</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="12">
+        <f t="shared" ref="Z14:AE14" si="13">+Z9-Z13</f>
+        <v>-618.06919999999991</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" si="13"/>
+        <v>-483.32849499999975</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="13"/>
+        <v>-260.70092074999957</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="13"/>
+        <v>85.770915237500276</v>
+      </c>
+      <c r="AD14" s="12">
+        <f t="shared" si="13"/>
+        <v>490.21774730875063</v>
+      </c>
+      <c r="AE14" s="12">
+        <f t="shared" si="13"/>
+        <v>1060.3457265113759</v>
+      </c>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+    </row>
+    <row r="15" spans="2:69 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1685,70 +2250,88 @@
         <v>-43.644999999999996</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R15" s="3">
         <f>+R14/main!L3</f>
-        <v>104.60036801959149</v>
-      </c>
-      <c r="W15" s="3">
+        <v>36.532262630355277</v>
+      </c>
+      <c r="W15" s="1">
         <f>3.032-21.894-4.846</f>
         <v>-23.707999999999998</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="1">
         <f>7.601-46.869+21.822</f>
         <v>-17.446000000000002</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="1">
         <f>11.084-53.653+32.336</f>
         <v>-10.233000000000004</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="1">
         <f>+V28*0.05</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="1">
         <f>+W28*0.05</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="1">
         <f>+X28*0.05</f>
         <v>-2.9483500000000009</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="1">
         <f>+Y28*0.05</f>
-        <v>-38.027399999999993</v>
-      </c>
-      <c r="AD15" s="3">
+        <v>9.0509500000000003</v>
+      </c>
+      <c r="AD15" s="1">
         <f>+Z28*0.05</f>
-        <v>-68.333051679999997</v>
-      </c>
-      <c r="AE15" s="3">
+        <v>-28.033201999999996</v>
+      </c>
+      <c r="AE15" s="1">
         <f>+AA28*0.05</f>
-        <v>-95.936253863999994</v>
-      </c>
-      <c r="AF15" s="3">
-        <f>+AB28*0.05</f>
-        <v>-118.99427470320001</v>
-      </c>
-      <c r="AG15" s="3">
-        <f>+AC28*0.05</f>
-        <v>-136.40851359415998</v>
-      </c>
-      <c r="AH15" s="3">
-        <f>+AD28*0.05</f>
-        <v>-144.29388874140801</v>
-      </c>
-      <c r="AI15" s="3">
-        <f>+AE28*0.05</f>
-        <v>-137.63223307233039</v>
-      </c>
-      <c r="AJ15" s="3">
-        <f>+AF28*0.05</f>
-        <v>-109.69134947257949</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-57.032911699999978</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+    </row>
+    <row r="16" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1789,70 +2372,88 @@
         <v>-112.33400000000002</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R16" s="11">
+        <v>68</v>
+      </c>
+      <c r="R16" s="10">
         <f>+R15/main!L2-1</f>
-        <v>0.7752947729054902</v>
-      </c>
-      <c r="W16" s="2">
+        <v>-0.37996838712906866</v>
+      </c>
+      <c r="W16" s="12">
         <f>+W14+W15</f>
         <v>-289.14</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="12">
         <f>+X14+X15</f>
         <v>-213.52900000000002</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="12">
         <f>+Y14+Y15</f>
         <v>-701.31499999999983</v>
       </c>
-      <c r="Z16" s="2">
-        <f t="shared" ref="Z16:AE16" si="17">+Z14+Z15</f>
-        <v>-638.56406000000004</v>
-      </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="17"/>
-        <v>-594.25037800000007</v>
-      </c>
-      <c r="AB16" s="2">
-        <f t="shared" si="17"/>
-        <v>-516.0026514000001</v>
-      </c>
-      <c r="AC16" s="2">
-        <f t="shared" si="17"/>
-        <v>-419.57968282000007</v>
-      </c>
-      <c r="AD16" s="2">
-        <f t="shared" si="17"/>
-        <v>-250.39087944600016</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="17"/>
-        <v>12.744723930200095</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" ref="AF16" si="18">+AF14+AF15</f>
-        <v>402.18276570825998</v>
-      </c>
-      <c r="AG16" s="2">
-        <f t="shared" ref="AG16" si="19">+AG14+AG15</f>
-        <v>959.002585147638</v>
-      </c>
-      <c r="AH16" s="2">
-        <f t="shared" ref="AH16" si="20">+AH14+AH15</f>
-        <v>1739.40958045052</v>
-      </c>
-      <c r="AI16" s="2">
-        <f t="shared" ref="AI16:AJ16" si="21">+AI14+AI15</f>
-        <v>2816.8182217875255</v>
-      </c>
-      <c r="AJ16" s="2">
-        <f t="shared" si="21"/>
-        <v>4287.2937812466171</v>
-      </c>
-    </row>
-    <row r="17" spans="2:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="12">
+        <f t="shared" ref="Z16:AE16" si="14">+Z14+Z15</f>
+        <v>-618.06919999999991</v>
+      </c>
+      <c r="AA16" s="12">
+        <f t="shared" si="14"/>
+        <v>-483.32849499999975</v>
+      </c>
+      <c r="AB16" s="12">
+        <f t="shared" si="14"/>
+        <v>-263.64927074999957</v>
+      </c>
+      <c r="AC16" s="12">
+        <f t="shared" si="14"/>
+        <v>94.821865237500276</v>
+      </c>
+      <c r="AD16" s="12">
+        <f t="shared" si="14"/>
+        <v>462.18454530875061</v>
+      </c>
+      <c r="AE16" s="12">
+        <f t="shared" si="14"/>
+        <v>1003.3128148113759</v>
+      </c>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+    </row>
+    <row r="17" spans="2:69" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1881,61 +2482,79 @@
       <c r="O17" s="7">
         <v>46.18</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="11">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="11">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="11">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="Z17" s="7">
-        <f>+Z9*0.3*0.2</f>
-        <v>32.451026400000003</v>
-      </c>
-      <c r="AA17" s="7">
-        <f>+AA9*0.3*0.2</f>
-        <v>42.186334320000007</v>
-      </c>
-      <c r="AB17" s="7">
-        <f>+AB9*0.3*0.2</f>
-        <v>54.842234616000013</v>
-      </c>
-      <c r="AC17" s="7">
-        <f>+AC9*0.3*0.2</f>
-        <v>71.294905000800014</v>
-      </c>
-      <c r="AD17" s="7">
-        <f>+AD9*0.3*0.2</f>
-        <v>92.683376501040016</v>
-      </c>
-      <c r="AE17" s="7">
-        <f>+AE9*0.3*0.2</f>
-        <v>120.48838945135203</v>
-      </c>
-      <c r="AF17" s="7">
-        <f>+AF9*0.3*0.2</f>
-        <v>156.63490628675765</v>
-      </c>
-      <c r="AG17" s="7">
-        <f>+AG9*0.3*0.2</f>
-        <v>203.62537817278496</v>
-      </c>
-      <c r="AH17" s="7">
-        <f>+AH9*0.3*0.2</f>
-        <v>264.71299162462049</v>
-      </c>
-      <c r="AI17" s="7">
-        <f>+AI9*0.3*0.2</f>
-        <v>344.12688911200667</v>
-      </c>
-      <c r="AJ17" s="7">
-        <f>+AJ9*0.3*0.2</f>
-        <v>447.36495584560862</v>
-      </c>
-    </row>
-    <row r="18" spans="2:58" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z17" s="11">
+        <f>+Z16*0.2</f>
+        <v>-123.61383999999998</v>
+      </c>
+      <c r="AA17" s="11">
+        <f t="shared" ref="AA17:AE17" si="15">+AA16*0.2</f>
+        <v>-96.665698999999961</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="15"/>
+        <v>-52.729854149999916</v>
+      </c>
+      <c r="AC17" s="11">
+        <f t="shared" si="15"/>
+        <v>18.964373047500057</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" si="15"/>
+        <v>92.436909061750129</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="15"/>
+        <v>200.66256296227519</v>
+      </c>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
+      <c r="BM17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="11"/>
+      <c r="BP17" s="11"/>
+      <c r="BQ17" s="11"/>
+    </row>
+    <row r="18" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1978,152 +2597,196 @@
       <c r="Q18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="8">
-        <f>+W16+W17</f>
+      <c r="W18" s="12">
+        <f t="shared" ref="W18:AJ18" si="16">+W16+W17</f>
         <v>-289.20599999999996</v>
       </c>
-      <c r="X18" s="8">
-        <f>+X16+X17</f>
+      <c r="X18" s="12">
+        <f t="shared" si="16"/>
         <v>-213.81700000000004</v>
       </c>
-      <c r="Y18" s="8">
-        <f>+Y16+Y17</f>
+      <c r="Y18" s="12">
+        <f t="shared" si="16"/>
         <v>-701.58099999999979</v>
       </c>
-      <c r="Z18" s="8">
-        <f>+Z16+Z17</f>
-        <v>-606.11303359999999</v>
-      </c>
-      <c r="AA18" s="8">
-        <f>+AA16+AA17</f>
-        <v>-552.06404368000005</v>
-      </c>
-      <c r="AB18" s="8">
-        <f>+AB16+AB17</f>
-        <v>-461.16041678400006</v>
-      </c>
-      <c r="AC18" s="8">
-        <f>+AC16+AC17</f>
-        <v>-348.28477781920003</v>
-      </c>
-      <c r="AD18" s="8">
-        <f>+AD16+AD17</f>
-        <v>-157.70750294496014</v>
-      </c>
-      <c r="AE18" s="8">
-        <f>+AE16+AE17</f>
-        <v>133.23311338155213</v>
-      </c>
-      <c r="AF18" s="8">
-        <f>+AF16+AF17</f>
-        <v>558.81767199501769</v>
-      </c>
-      <c r="AG18" s="8">
-        <f>+AG16+AG17</f>
-        <v>1162.6279633204231</v>
-      </c>
-      <c r="AH18" s="8">
-        <f>+AH16+AH17</f>
-        <v>2004.1225720751404</v>
-      </c>
-      <c r="AI18" s="8">
-        <f>+AI16+AI17</f>
-        <v>3160.9451108995322</v>
-      </c>
-      <c r="AJ18" s="8">
-        <f>+AJ16+AJ17</f>
-        <v>4734.6587370922261</v>
-      </c>
-      <c r="AK18" s="2">
-        <f>+AJ18*(1-$R$12)</f>
-        <v>4639.9655623503813</v>
-      </c>
-      <c r="AL18" s="2">
-        <f t="shared" ref="AL18:BF18" si="22">+AK18*(1-$R$12)</f>
-        <v>4547.1662511033737</v>
-      </c>
-      <c r="AM18" s="2">
-        <f t="shared" si="22"/>
-        <v>4456.2229260813065</v>
-      </c>
-      <c r="AN18" s="2">
-        <f t="shared" si="22"/>
-        <v>4367.0984675596801</v>
-      </c>
-      <c r="AO18" s="2">
-        <f t="shared" si="22"/>
-        <v>4279.7564982084868</v>
-      </c>
-      <c r="AP18" s="2">
-        <f t="shared" si="22"/>
-        <v>4194.1613682443167</v>
-      </c>
-      <c r="AQ18" s="2">
-        <f t="shared" si="22"/>
-        <v>4110.2781408794299</v>
-      </c>
-      <c r="AR18" s="2">
-        <f t="shared" si="22"/>
-        <v>4028.0725780618413</v>
-      </c>
-      <c r="AS18" s="2">
-        <f t="shared" si="22"/>
-        <v>3947.5111265006044</v>
-      </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="22"/>
-        <v>3868.5609039705923</v>
-      </c>
-      <c r="AU18" s="2">
-        <f t="shared" si="22"/>
-        <v>3791.1896858911805</v>
-      </c>
-      <c r="AV18" s="2">
-        <f t="shared" si="22"/>
-        <v>3715.3658921733568</v>
-      </c>
-      <c r="AW18" s="2">
-        <f t="shared" si="22"/>
-        <v>3641.0585743298898</v>
-      </c>
-      <c r="AX18" s="2">
-        <f t="shared" si="22"/>
-        <v>3568.2374028432919</v>
-      </c>
-      <c r="AY18" s="2">
-        <f t="shared" si="22"/>
-        <v>3496.8726547864258</v>
-      </c>
-      <c r="AZ18" s="2">
-        <f t="shared" si="22"/>
-        <v>3426.9352016906973</v>
-      </c>
-      <c r="BA18" s="2">
-        <f t="shared" si="22"/>
-        <v>3358.3964976568832</v>
-      </c>
-      <c r="BB18" s="2">
-        <f t="shared" si="22"/>
-        <v>3291.2285677037453</v>
-      </c>
-      <c r="BC18" s="2">
-        <f t="shared" si="22"/>
-        <v>3225.4039963496703</v>
-      </c>
-      <c r="BD18" s="2">
-        <f t="shared" si="22"/>
-        <v>3160.8959164226767</v>
-      </c>
-      <c r="BE18" s="2">
-        <f t="shared" si="22"/>
-        <v>3097.6779980942233</v>
-      </c>
-      <c r="BF18" s="2">
-        <f t="shared" si="22"/>
-        <v>3035.7244381323389</v>
-      </c>
-    </row>
-    <row r="19" spans="2:58" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z18" s="12">
+        <f t="shared" si="16"/>
+        <v>-741.68303999999989</v>
+      </c>
+      <c r="AA18" s="12">
+        <f t="shared" si="16"/>
+        <v>-579.99419399999965</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="16"/>
+        <v>-316.37912489999951</v>
+      </c>
+      <c r="AC18" s="12">
+        <f t="shared" si="16"/>
+        <v>113.78623828500034</v>
+      </c>
+      <c r="AD18" s="12">
+        <f t="shared" si="16"/>
+        <v>554.62145437050071</v>
+      </c>
+      <c r="AE18" s="12">
+        <f t="shared" si="16"/>
+        <v>1203.9753777736512</v>
+      </c>
+      <c r="AF18" s="12">
+        <f>+AE18*(1-$R$12)</f>
+        <v>1191.9356239959147</v>
+      </c>
+      <c r="AG18" s="12">
+        <f t="shared" ref="AG18:BQ18" si="17">+AF18*(1-$R$12)</f>
+        <v>1180.0162677559556</v>
+      </c>
+      <c r="AH18" s="12">
+        <f t="shared" si="17"/>
+        <v>1168.2161050783961</v>
+      </c>
+      <c r="AI18" s="12">
+        <f t="shared" si="17"/>
+        <v>1156.5339440276123</v>
+      </c>
+      <c r="AJ18" s="12">
+        <f t="shared" si="17"/>
+        <v>1144.9686045873361</v>
+      </c>
+      <c r="AK18" s="12">
+        <f t="shared" si="17"/>
+        <v>1133.5189185414627</v>
+      </c>
+      <c r="AL18" s="12">
+        <f t="shared" si="17"/>
+        <v>1122.1837293560479</v>
+      </c>
+      <c r="AM18" s="12">
+        <f t="shared" si="17"/>
+        <v>1110.9618920624875</v>
+      </c>
+      <c r="AN18" s="12">
+        <f t="shared" si="17"/>
+        <v>1099.8522731418627</v>
+      </c>
+      <c r="AO18" s="12">
+        <f t="shared" si="17"/>
+        <v>1088.853750410444</v>
+      </c>
+      <c r="AP18" s="12">
+        <f t="shared" si="17"/>
+        <v>1077.9652129063395</v>
+      </c>
+      <c r="AQ18" s="12">
+        <f t="shared" si="17"/>
+        <v>1067.1855607772761</v>
+      </c>
+      <c r="AR18" s="12">
+        <f t="shared" si="17"/>
+        <v>1056.5137051695033</v>
+      </c>
+      <c r="AS18" s="12">
+        <f t="shared" si="17"/>
+        <v>1045.9485681178082</v>
+      </c>
+      <c r="AT18" s="12">
+        <f t="shared" si="17"/>
+        <v>1035.48908243663</v>
+      </c>
+      <c r="AU18" s="12">
+        <f t="shared" si="17"/>
+        <v>1025.1341916122637</v>
+      </c>
+      <c r="AV18" s="12">
+        <f t="shared" si="17"/>
+        <v>1014.8828496961411</v>
+      </c>
+      <c r="AW18" s="12">
+        <f t="shared" si="17"/>
+        <v>1004.7340211991797</v>
+      </c>
+      <c r="AX18" s="12">
+        <f t="shared" si="17"/>
+        <v>994.68668098718786</v>
+      </c>
+      <c r="AY18" s="12">
+        <f t="shared" si="17"/>
+        <v>984.73981417731602</v>
+      </c>
+      <c r="AZ18" s="12">
+        <f t="shared" si="17"/>
+        <v>974.89241603554285</v>
+      </c>
+      <c r="BA18" s="12">
+        <f t="shared" si="17"/>
+        <v>965.14349187518746</v>
+      </c>
+      <c r="BB18" s="12">
+        <f t="shared" si="17"/>
+        <v>955.49205695643559</v>
+      </c>
+      <c r="BC18" s="12">
+        <f t="shared" si="17"/>
+        <v>945.9371363868712</v>
+      </c>
+      <c r="BD18" s="12">
+        <f t="shared" si="17"/>
+        <v>936.47776502300246</v>
+      </c>
+      <c r="BE18" s="12">
+        <f t="shared" si="17"/>
+        <v>927.11298737277241</v>
+      </c>
+      <c r="BF18" s="12">
+        <f t="shared" si="17"/>
+        <v>917.84185749904464</v>
+      </c>
+      <c r="BG18" s="12">
+        <f t="shared" si="17"/>
+        <v>908.66343892405416</v>
+      </c>
+      <c r="BH18" s="12">
+        <f t="shared" si="17"/>
+        <v>899.57680453481362</v>
+      </c>
+      <c r="BI18" s="12">
+        <f t="shared" si="17"/>
+        <v>890.58103648946542</v>
+      </c>
+      <c r="BJ18" s="12">
+        <f t="shared" si="17"/>
+        <v>881.67522612457071</v>
+      </c>
+      <c r="BK18" s="12">
+        <f t="shared" si="17"/>
+        <v>872.858473863325</v>
+      </c>
+      <c r="BL18" s="12">
+        <f t="shared" si="17"/>
+        <v>864.12988912469177</v>
+      </c>
+      <c r="BM18" s="12">
+        <f t="shared" si="17"/>
+        <v>855.48859023344482</v>
+      </c>
+      <c r="BN18" s="12">
+        <f t="shared" si="17"/>
+        <v>846.93370433111033</v>
+      </c>
+      <c r="BO18" s="12">
+        <f t="shared" si="17"/>
+        <v>838.46436728779918</v>
+      </c>
+      <c r="BP18" s="12">
+        <f t="shared" si="17"/>
+        <v>830.07972361492114</v>
+      </c>
+      <c r="BQ18" s="12">
+        <f t="shared" si="17"/>
+        <v>821.77892637877187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:69" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
@@ -2159,64 +2822,82 @@
         <f>+O18/O20</f>
         <v>-0.38798634652153019</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="11">
         <f>+W18/W20</f>
         <v>-4.5882408935144054</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="11">
         <f>+X18/X20</f>
         <v>-3.3775155593466661</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="11">
         <f>+Y18/Y20</f>
         <v>-5.8538744586938547</v>
       </c>
-      <c r="Z19" s="7">
-        <f t="shared" ref="Z19:AE19" si="23">+Z18/Z20</f>
-        <v>-5.0573057230348182</v>
-      </c>
-      <c r="AA19" s="7">
-        <f t="shared" si="23"/>
-        <v>-4.6063299959115227</v>
-      </c>
-      <c r="AB19" s="7">
-        <f t="shared" si="23"/>
-        <v>-3.8478453452594521</v>
-      </c>
-      <c r="AC19" s="7">
-        <f t="shared" si="23"/>
-        <v>-2.9060299027876746</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="23"/>
-        <v>-1.3158850131829229</v>
-      </c>
-      <c r="AE19" s="7">
-        <f t="shared" si="23"/>
-        <v>1.1116748023058358</v>
-      </c>
-      <c r="AF19" s="7">
-        <f t="shared" ref="AF19" si="24">+AF18/AF20</f>
-        <v>4.6626811403934756</v>
-      </c>
-      <c r="AG19" s="7">
-        <f t="shared" ref="AG19" si="25">+AG18/AG20</f>
-        <v>9.7007731672389674</v>
-      </c>
-      <c r="AH19" s="7">
-        <f t="shared" ref="AH19" si="26">+AH18/AH20</f>
-        <v>16.722063363692147</v>
-      </c>
-      <c r="AI19" s="7">
-        <f t="shared" ref="AI19:AJ19" si="27">+AI18/AI20</f>
-        <v>26.374397040438652</v>
-      </c>
-      <c r="AJ19" s="7">
-        <f t="shared" si="27"/>
-        <v>39.505200186002604</v>
-      </c>
-    </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="Z19" s="11">
+        <f t="shared" ref="Z19:AE19" si="18">+Z18/Z20</f>
+        <v>-6.1884791696217727</v>
+      </c>
+      <c r="AA19" s="11">
+        <f t="shared" si="18"/>
+        <v>-4.8393744962411001</v>
+      </c>
+      <c r="AB19" s="11">
+        <f t="shared" si="18"/>
+        <v>-2.6398144740465042</v>
+      </c>
+      <c r="AC19" s="11">
+        <f t="shared" si="18"/>
+        <v>0.94941333081627988</v>
+      </c>
+      <c r="AD19" s="11">
+        <f t="shared" si="18"/>
+        <v>4.6276686027459615</v>
+      </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="18"/>
+        <v>10.045769074198793</v>
+      </c>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="11"/>
+      <c r="BQ19" s="11"/>
+    </row>
+    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
@@ -2248,61 +2929,79 @@
       <c r="O20" s="4">
         <v>170.506</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="11">
         <v>63.031999999999996</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="11">
         <v>63.305999999999997</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="11">
         <v>119.849</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="11">
         <f>+Y20</f>
         <v>119.849</v>
       </c>
-      <c r="AA20" s="7">
-        <f t="shared" ref="AA20:AE20" si="28">+Z20</f>
+      <c r="AA20" s="11">
+        <f t="shared" ref="AA20:AE20" si="19">+Z20</f>
         <v>119.849</v>
       </c>
-      <c r="AB20" s="7">
-        <f t="shared" si="28"/>
+      <c r="AB20" s="11">
+        <f t="shared" si="19"/>
         <v>119.849</v>
       </c>
-      <c r="AC20" s="7">
-        <f t="shared" si="28"/>
+      <c r="AC20" s="11">
+        <f t="shared" si="19"/>
         <v>119.849</v>
       </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="28"/>
+      <c r="AD20" s="11">
+        <f t="shared" si="19"/>
         <v>119.849</v>
       </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="28"/>
+      <c r="AE20" s="11">
+        <f t="shared" si="19"/>
         <v>119.849</v>
       </c>
-      <c r="AF20" s="7">
-        <f t="shared" ref="AF20:AI20" si="29">+AE20</f>
-        <v>119.849</v>
-      </c>
-      <c r="AG20" s="7">
-        <f t="shared" si="29"/>
-        <v>119.849</v>
-      </c>
-      <c r="AH20" s="7">
-        <f t="shared" si="29"/>
-        <v>119.849</v>
-      </c>
-      <c r="AI20" s="7">
-        <f t="shared" si="29"/>
-        <v>119.849</v>
-      </c>
-      <c r="AJ20" s="7">
-        <f t="shared" ref="AJ20" si="30">+AI20</f>
-        <v>119.849</v>
-      </c>
-    </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="11"/>
+      <c r="BN20" s="11"/>
+      <c r="BO20" s="11"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="11"/>
+    </row>
+    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2323,132 +3022,162 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <f>+I5/H5-1</f>
-        <v>2.7488917586110384E-2</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="9">
-        <f>+L5/K5-1</f>
-        <v>0.13817720477300788</v>
-      </c>
-      <c r="M22" s="9">
-        <f>+M5/L5-1</f>
-        <v>9.0137314799751733E-2</v>
-      </c>
-      <c r="N22" s="9">
-        <f>+N5/M5-1</f>
-        <v>0.10916436834338294</v>
-      </c>
-      <c r="O22" s="9">
-        <f>+O5/N5-1</f>
-        <v>0.27435220251146131</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+      <c r="K22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" ref="I22:N22" si="20">+L5/H5-1</f>
+        <v>0.25338136342010453</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="20"/>
+        <v>0.32980295023409312</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="8">
+        <f>+O5/K5-1</f>
+        <v>0.75378548895899056</v>
+      </c>
+      <c r="Q22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f>+F9/F5</f>
         <v>0.50985089600774924</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <f>+H9/H5</f>
         <v>0.54108611432066878</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <f>+I9/I5</f>
         <v>0.54408813952975588</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
         <f>+K9/K5</f>
         <v>0.53282814428747771</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <f>+L9/L5</f>
         <v>0.53058703733829804</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f>+M9/M5</f>
         <v>0.58497532181131828</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f>+N9/N5</f>
         <v>0.60825194339246547</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <f>+O9/O5</f>
         <v>0.60688519846561106</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="X23" s="8">
+        <f t="shared" ref="X23:Y23" si="21">+X5/W5-1</f>
+        <v>0.65848166951488762</v>
+      </c>
+      <c r="Y23" s="8">
+        <f>+Y5/X5-1</f>
+        <v>0.30381593841548482</v>
+      </c>
+      <c r="Z23" s="8">
+        <f t="shared" ref="Z23:AE23" si="22">+Z5/Y5-1</f>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AD23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AE23" s="8">
+        <f t="shared" si="22"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>+F14/F5</f>
         <v>-0.46582889365529634</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <f>+H14/H5</f>
         <v>-0.34087768186864215</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <f>+I14/I5</f>
         <v>-0.32919291179432164</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
         <f>+K14/K5</f>
         <v>-0.36534083116170635</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <f>+L14/L5</f>
         <v>-3.1388030294814091</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>+M14/M5</f>
         <v>-0.29633723725881428</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f>+N14/N5</f>
         <v>-0.25264102053019749</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <f>+O14/O5</f>
         <v>-0.26859234291479145</v>
       </c>
@@ -2456,46 +3185,46 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f>+F17/F16</f>
         <v>2.028023598820059E-4</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f>+H17/H16</f>
         <v>5.3899638872419567E-5</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <f>+I17/I16</f>
         <v>1.1219470095797011E-3</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
         <f>+K17/K16</f>
         <v>1.6993140950380024E-4</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <f>+L17/L16</f>
         <v>1.7495234850507823E-4</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f>+M17/M16</f>
         <v>5.1275131561192807E-4</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f>+N17/N16</f>
         <v>1.7630057803468151E-2</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <f>+O17/O16</f>
         <v>-0.41109548311285982</v>
       </c>
@@ -2503,41 +3232,41 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" ref="L26" si="31">+L18/H18</f>
+      <c r="L26" s="8">
+        <f t="shared" ref="L26" si="23">+L18/H18</f>
         <v>9.7571053860802728</v>
       </c>
-      <c r="M26" s="9">
-        <f t="shared" ref="M26" si="32">+M18/I18</f>
+      <c r="M26" s="8">
+        <f t="shared" ref="M26" si="24">+M18/I18</f>
         <v>1.278413793103448</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <f>+O18/K18</f>
         <v>1.0217938618846827</v>
       </c>
@@ -2545,7 +3274,7 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2563,7 +3292,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
@@ -2573,60 +3302,60 @@
         <v>-58.967000000000013</v>
       </c>
       <c r="Y28" s="7">
-        <f>+X28+Y18</f>
-        <v>-760.54799999999977</v>
+        <f>+Y30-Y41</f>
+        <v>181.01900000000001</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" ref="Z28:AJ28" si="33">+Y28+Z18</f>
-        <v>-1366.6610335999999</v>
+        <f>+Y28+Z18</f>
+        <v>-560.66403999999989</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="33"/>
-        <v>-1918.7250772799998</v>
+        <f t="shared" ref="AA28:AJ28" si="25">+Z28+AA18</f>
+        <v>-1140.6582339999995</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="33"/>
-        <v>-2379.8854940639999</v>
+        <f t="shared" si="25"/>
+        <v>-1457.0373588999992</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" si="33"/>
-        <v>-2728.1702718831998</v>
+        <f t="shared" si="25"/>
+        <v>-1343.2511206149989</v>
       </c>
       <c r="AD28" s="7">
-        <f t="shared" si="33"/>
-        <v>-2885.87777482816</v>
+        <f t="shared" si="25"/>
+        <v>-788.62966624449814</v>
       </c>
       <c r="AE28" s="7">
-        <f t="shared" si="33"/>
-        <v>-2752.6446614466076</v>
+        <f t="shared" si="25"/>
+        <v>415.34571152915305</v>
       </c>
       <c r="AF28" s="7">
-        <f t="shared" si="33"/>
-        <v>-2193.8269894515897</v>
+        <f t="shared" si="25"/>
+        <v>1607.2813355250678</v>
       </c>
       <c r="AG28" s="7">
-        <f t="shared" si="33"/>
-        <v>-1031.1990261311666</v>
+        <f t="shared" si="25"/>
+        <v>2787.2976032810234</v>
       </c>
       <c r="AH28" s="7">
-        <f t="shared" si="33"/>
-        <v>972.92354594397375</v>
+        <f t="shared" si="25"/>
+        <v>3955.5137083594195</v>
       </c>
       <c r="AI28" s="7">
-        <f t="shared" si="33"/>
-        <v>4133.868656843506</v>
+        <f t="shared" si="25"/>
+        <v>5112.047652387032</v>
       </c>
       <c r="AJ28" s="7">
-        <f t="shared" si="33"/>
-        <v>8868.5273939357321</v>
-      </c>
-    </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>6257.0162569743679</v>
+      </c>
+    </row>
+    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +3368,7 @@
         <v>448.26300000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -2647,7 +3376,7 @@
         <v>154.81899999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
@@ -2818,10 +3547,10 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="W54">
         <v>-168.20400000000001</v>
@@ -2835,7 +3564,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W55">
         <v>-57.939</v>
@@ -2849,7 +3578,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W56">
         <v>251.39099999999999</v>
@@ -2863,14 +3592,14 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W57">
-        <f t="shared" ref="W57:X57" si="34">+W54+W55+W56</f>
+        <f t="shared" ref="W57:X57" si="26">+W54+W55+W56</f>
         <v>25.24799999999999</v>
       </c>
       <c r="X57">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>-56.477000000000004</v>
       </c>
       <c r="Y57">

--- a/Stocks/TEM.xlsx
+++ b/Stocks/TEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B457069B-4D73-480D-818F-7BA0A0CE771A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{22983583-9359-4F45-91C1-1F2B8DCC0E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE2C1095-E38B-43E1-895D-E6878F87A664}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F8D720D6-6235-4291-8274-52EC6A714058}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
   <si>
     <t>Price</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>rev y/y</t>
+  </si>
+  <si>
+    <t>IRR</t>
   </si>
 </sst>
 </file>
@@ -308,19 +311,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -337,6 +337,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,14 +744,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B75B3B-A836-4379-8809-2E1DB20C5D54}">
-  <dimension ref="A1:XFD57"/>
+  <dimension ref="A1:XFD59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
+      <selection pane="bottomRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,670 +782,670 @@
       </c>
     </row>
     <row r="2" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="1">
         <v>2022</v>
       </c>
-      <c r="X2" s="11">
+      <c r="X2" s="1">
         <f>+W2+1</f>
         <v>2023</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="1">
         <f t="shared" ref="Y2:AE2" si="0">+X2+1</f>
         <v>2024</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="1">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="1">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AB2" s="1">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="1">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="1">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="1">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="1">
         <f t="shared" ref="AF2:AI2" si="1">+AE2+1</f>
         <v>2031</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="1">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="1">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="1">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="1">
         <f t="shared" ref="AJ2" si="2">+AI2+1</f>
         <v>2035</v>
       </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
     </row>
     <row r="3" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>82.058000000000007</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>91.924000000000007</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>96.814999999999998</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>102.569</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>112.324</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>116.422</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f>451.749-M3-L3-K3</f>
         <v>120.43399999999998</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>193.804</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="1">
         <v>197.98400000000001</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="1">
         <v>363.02199999999999</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="1">
         <v>451.74900000000002</v>
       </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
     </row>
     <row r="4" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>33.566000000000003</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>40.493000000000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>39.241999999999997</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>43.250999999999998</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>53.645000000000003</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>64.507000000000005</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>241.649-M4-L4-K4</f>
         <v>80.245999999999981</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>61.933</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="1">
         <v>122.684</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="1">
         <v>168.8</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="1">
         <v>241.649</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
     </row>
     <row r="5" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <f>+F3+F4</f>
         <v>115.62400000000001</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <f>+H3+H4</f>
         <v>132.417</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>+I3+I4</f>
         <v>136.05699999999999</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>+K3+K4</f>
         <v>145.82</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>+L3+L4</f>
         <v>165.96899999999999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>+M3+M4</f>
         <v>180.929</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>+N3+N4</f>
         <v>200.67999999999995</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>+O3+O4</f>
         <v>255.73699999999999</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="9">
         <f>+W3+W4</f>
         <v>320.66800000000001</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="9">
         <f>+X3+X4</f>
         <v>531.822</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="9">
         <f>+Y3+Y4</f>
         <v>693.39800000000002</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="9">
         <f>+Y5*1.35</f>
         <v>936.08730000000014</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="9">
         <f t="shared" ref="AA5:AC5" si="3">+Z5*1.35</f>
         <v>1263.7178550000003</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="9">
         <f t="shared" si="3"/>
         <v>1706.0191042500005</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="9">
         <f t="shared" si="3"/>
         <v>2303.1257907375007</v>
       </c>
-      <c r="AD5" s="12">
-        <f t="shared" ref="AA5:AE5" si="4">+AC5*1.3</f>
+      <c r="AD5" s="9">
+        <f t="shared" ref="AD5:AE5" si="4">+AC5*1.3</f>
         <v>2994.0635279587509</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="9">
         <f t="shared" si="4"/>
         <v>3892.2825863463763</v>
       </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
     </row>
     <row r="6" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>45.28</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>46.960999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>46.54</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>52.835000000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>68.323999999999998</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>60.125999999999998</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f>243.467-M6-L6-K6</f>
         <v>62.182000000000009</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>84.783000000000001</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="1">
         <v>150.255</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="1">
         <v>189.16499999999999</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="1">
         <v>243.46700000000001</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="1">
         <f>+Y6*1.2</f>
         <v>292.16039999999998</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="1">
         <f t="shared" ref="AA6:AC6" si="5">+Z6*1.2</f>
         <v>350.59247999999997</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="1">
         <f t="shared" si="5"/>
         <v>420.71097599999996</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="1">
         <f t="shared" si="5"/>
         <v>504.85317119999991</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="1">
         <f>+AC6*1.15</f>
         <v>580.58114687999989</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="1">
         <f t="shared" ref="AE6" si="6">+AD6*1.15</f>
         <v>667.66831891199979</v>
       </c>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
     </row>
     <row r="7" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>11.393000000000001</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>13.807</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>15.49</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>15.288</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>22.132000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>14.964</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f>68.818-M7-L7-K7</f>
         <v>16.433999999999997</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>15.750999999999999</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="1">
         <v>40.226999999999997</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="1">
         <v>56.481999999999999</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="1">
         <v>68.817999999999998</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="1">
         <f t="shared" ref="Z7:AE8" si="7">+Y7*1.2</f>
         <v>82.581599999999995</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="1">
         <f t="shared" si="7"/>
         <v>99.097919999999988</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="1">
         <f t="shared" si="7"/>
         <v>118.91750399999998</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="1">
         <f t="shared" si="7"/>
         <v>142.70100479999996</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="1">
         <f t="shared" si="7"/>
         <v>171.24120575999996</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="1">
         <f t="shared" si="7"/>
         <v>205.48944691199995</v>
       </c>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-    </row>
-    <row r="8" spans="2:69 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+    </row>
+    <row r="8" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <f>+F6+F7</f>
         <v>56.673000000000002</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f>+H6+H7</f>
         <v>60.768000000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f>+I6+I7</f>
         <v>62.03</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <f>+K6+K7</f>
         <v>68.123000000000005</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>77.908000000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <f>+M6+M7</f>
         <v>75.09</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <f>+N6+N7</f>
         <v>78.616000000000014</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="3">
         <f>+O6+O7</f>
         <v>100.53400000000001</v>
       </c>
@@ -1457,27 +1461,27 @@
         <f>+Y6+Y7</f>
         <v>312.28500000000003</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="1">
         <f t="shared" si="7"/>
         <v>374.74200000000002</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="1">
         <f t="shared" si="7"/>
         <v>449.69040000000001</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="1">
         <f t="shared" si="7"/>
         <v>539.62847999999997</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="1">
         <f t="shared" si="7"/>
         <v>647.55417599999998</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="1">
         <f t="shared" si="7"/>
         <v>777.06501119999996</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="1">
         <f t="shared" si="7"/>
         <v>932.47801343999993</v>
       </c>
@@ -1521,157 +1525,156 @@
       <c r="BQ8" s="1"/>
     </row>
     <row r="9" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <f>+F5-F8</f>
         <v>58.951000000000008</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <f>+H5-H8</f>
         <v>71.649000000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>+I5-I8</f>
         <v>74.026999999999987</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f>+K5-K8</f>
         <v>77.696999999999989</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f>+L5-L8</f>
         <v>88.060999999999993</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f>+M5-M8</f>
         <v>105.839</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>+N5-N8</f>
         <v>122.06399999999994</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f>+O5-O8</f>
         <v>155.20299999999997</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="9">
         <f>+W5-W8</f>
         <v>130.18600000000001</v>
       </c>
-      <c r="X9" s="12">
+      <c r="X9" s="9">
         <f>+X5-X8</f>
         <v>286.17500000000001</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="9">
         <f>+Y5-Y8</f>
         <v>381.113</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="9">
         <f t="shared" ref="Z9:AE9" si="8">+Z5-Z8</f>
         <v>561.34530000000018</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="9">
         <f t="shared" si="8"/>
         <v>814.02745500000037</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="9">
         <f t="shared" si="8"/>
         <v>1166.3906242500007</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="9">
         <f t="shared" si="8"/>
         <v>1655.5716147375006</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AD9" s="9">
         <f t="shared" si="8"/>
         <v>2216.9985167587511</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="9">
         <f t="shared" si="8"/>
         <v>2959.8045729063765</v>
       </c>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="12"/>
-      <c r="AZ9" s="12"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="12"/>
-      <c r="BC9" s="12"/>
-      <c r="BD9" s="12"/>
-      <c r="BE9" s="12"/>
-      <c r="BF9" s="12"/>
-      <c r="BG9" s="12"/>
-      <c r="BH9" s="12"/>
-      <c r="BI9" s="12"/>
-      <c r="BJ9" s="12"/>
-      <c r="BK9" s="12"/>
-      <c r="BL9" s="12"/>
-      <c r="BM9" s="12"/>
-      <c r="BN9" s="12"/>
-      <c r="BO9" s="12"/>
-      <c r="BP9" s="12"/>
-      <c r="BQ9" s="12"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
       <c r="XFD9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>22.902000000000001</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>23.427</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>24.155999999999999</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>27.067</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>77.908000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>30.68</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f>167.519-M10-L10-K10</f>
         <v>31.863999999999997</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>33.390999999999998</v>
       </c>
-      <c r="P10" s="3"/>
       <c r="W10" s="1">
         <v>79.082999999999998</v>
       </c>
@@ -1681,103 +1684,102 @@
       <c r="Y10" s="1">
         <v>167.51900000000001</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="1">
         <f>+Y10*1.3</f>
         <v>217.77470000000002</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="1">
         <f t="shared" ref="AA10:AE10" si="9">+Z10*1.3</f>
         <v>283.10711000000003</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="1">
         <f t="shared" si="9"/>
         <v>368.03924300000006</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="1">
         <f t="shared" si="9"/>
         <v>478.45101590000007</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="1">
         <f t="shared" si="9"/>
         <v>621.98632067000017</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="1">
         <f t="shared" si="9"/>
         <v>808.58221687100024</v>
       </c>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
-      <c r="BH10" s="11"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
-      <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="11"/>
-      <c r="BP10" s="11"/>
-      <c r="BQ10" s="11"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
     </row>
     <row r="11" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>20.863</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>22.170999999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>23.234000000000002</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>24.34</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>68.025000000000006</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>27.347999999999999</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <f>149.325-M11-L11-K11</f>
         <v>29.611999999999984</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>35.874000000000002</v>
       </c>
-      <c r="P11" s="3"/>
       <c r="W11" s="1">
         <v>83.158000000000001</v>
       </c>
@@ -1787,106 +1789,106 @@
       <c r="Y11" s="1">
         <v>149.32499999999999</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="1">
         <f>+Y11*1.2</f>
         <v>179.18999999999997</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="1">
         <f t="shared" ref="AA11:AE11" si="10">+Z11*1.2</f>
         <v>215.02799999999996</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="1">
         <f t="shared" si="10"/>
         <v>258.03359999999992</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AC11" s="1">
         <f t="shared" si="10"/>
         <v>309.64031999999992</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="1">
         <f t="shared" si="10"/>
         <v>371.56838399999987</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AE11" s="1">
         <f t="shared" si="10"/>
         <v>445.88206079999981</v>
       </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="11"/>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="11"/>
-      <c r="BH11" s="11"/>
-      <c r="BI11" s="11"/>
-      <c r="BJ11" s="11"/>
-      <c r="BK11" s="11"/>
-      <c r="BL11" s="11"/>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="11"/>
-      <c r="BP11" s="11"/>
-      <c r="BQ11" s="11"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
     </row>
     <row r="12" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>69.046999999999997</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>71.188999999999993</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>71.426000000000002</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>79.563999999999993</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>463.072</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>101.42700000000001</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <f>755.351-M12-L12-K12</f>
         <v>111.28799999999998</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>154.62700000000001</v>
       </c>
       <c r="Q12" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>0.01</v>
       </c>
       <c r="W12" s="1">
@@ -1898,363 +1900,363 @@
       <c r="Y12" s="1">
         <v>755.351</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="1">
         <f>+Y12*1.15</f>
         <v>868.65364999999997</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="1">
         <f t="shared" ref="AA12:AE12" si="11">+Z12*1.15</f>
         <v>998.95169749999991</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="1">
         <f t="shared" si="11"/>
         <v>1148.7944521249999</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="1">
         <f t="shared" si="11"/>
         <v>1321.1136199437499</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="1">
         <f t="shared" si="11"/>
         <v>1519.2806629353122</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="1">
         <f t="shared" si="11"/>
         <v>1747.172762375609</v>
       </c>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="11"/>
-      <c r="BK12" s="11"/>
-      <c r="BL12" s="11"/>
-      <c r="BM12" s="11"/>
-      <c r="BN12" s="11"/>
-      <c r="BO12" s="11"/>
-      <c r="BP12" s="11"/>
-      <c r="BQ12" s="11"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
     </row>
     <row r="13" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
         <f>+F10+F11+F12</f>
         <v>112.812</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <f>+H10+H11+H12</f>
         <v>116.78699999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f>+I10+I11+I12</f>
         <v>118.816</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f>+K10+K11+K12</f>
         <v>130.971</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>+L10+L11+L12</f>
         <v>609.005</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f>+M10+M11+M12</f>
         <v>159.45500000000001</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f>+N10+N11+N12</f>
         <v>172.76399999999995</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f>+O10+O11+O12</f>
         <v>223.892</v>
       </c>
       <c r="Q13" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="W13" s="11">
+      <c r="R13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="W13" s="1">
         <f>+W12+W11+W10</f>
         <v>395.61800000000005</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="1">
         <f>+X12+X11+X10</f>
         <v>482.25800000000004</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="1">
         <f>+Y12+Y11+Y10</f>
         <v>1072.1949999999999</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="1">
         <f>+Y13*1.1</f>
         <v>1179.4145000000001</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="1">
         <f t="shared" ref="AA13:AE13" si="12">+Z13*1.1</f>
         <v>1297.3559500000001</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="1">
         <f t="shared" si="12"/>
         <v>1427.0915450000002</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="1">
         <f t="shared" si="12"/>
         <v>1569.8006995000003</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD13" s="1">
         <f t="shared" si="12"/>
         <v>1726.7807694500004</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AE13" s="1">
         <f t="shared" si="12"/>
         <v>1899.4588463950006</v>
       </c>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
     </row>
     <row r="14" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <f>+F9-F13</f>
         <v>-53.86099999999999</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
         <f>+H9-H13</f>
         <v>-45.137999999999991</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>+I9-I13</f>
         <v>-44.789000000000016</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f>+K9-K13</f>
         <v>-53.274000000000015</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f>+L9-L13</f>
         <v>-520.94399999999996</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f>+M9-M13</f>
         <v>-53.616000000000014</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f>+N9-N13</f>
         <v>-50.700000000000017</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f>+O9-O13</f>
         <v>-68.689000000000021</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="9">
-        <f>+NPV(R13,Z18:BF18)</f>
-        <v>6324.3281279209286</v>
-      </c>
-      <c r="W14" s="12">
+      <c r="R14" s="7">
+        <f>+NPV(R13,AA18:BQ18)-main!L5+main!L6</f>
+        <v>7276.8876506075867</v>
+      </c>
+      <c r="W14" s="9">
         <f>+W9-W13</f>
         <v>-265.43200000000002</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="9">
         <f>+X9-X13</f>
         <v>-196.08300000000003</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="9">
         <f>+Y9-Y13</f>
         <v>-691.08199999999988</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="9">
         <f t="shared" ref="Z14:AE14" si="13">+Z9-Z13</f>
         <v>-618.06919999999991</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="9">
         <f t="shared" si="13"/>
         <v>-483.32849499999975</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="9">
         <f t="shared" si="13"/>
         <v>-260.70092074999957</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="9">
         <f t="shared" si="13"/>
         <v>85.770915237500276</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="9">
         <f t="shared" si="13"/>
         <v>490.21774730875063</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="9">
         <f t="shared" si="13"/>
         <v>1060.3457265113759</v>
       </c>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
-      <c r="BH14" s="12"/>
-      <c r="BI14" s="12"/>
-      <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-      <c r="BM14" s="12"/>
-      <c r="BN14" s="12"/>
-      <c r="BO14" s="12"/>
-      <c r="BP14" s="12"/>
-      <c r="BQ14" s="12"/>
-    </row>
-    <row r="15" spans="2:69 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+    </row>
+    <row r="15" spans="2:69 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
         <f>2.424-9.191+6.388</f>
         <v>-0.37900000000000134</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <f>1.957-11.712+-0.766</f>
         <v>-10.520999999999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <f>1.483-12.342-2.287</f>
         <v>-13.146000000000001</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <f>1.031-13.238+0.749</f>
         <v>-11.457999999999998</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <f>-1.718-13.295-7.048</f>
         <v>-22.061</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <f>4.789-13.761-11.522</f>
         <v>-20.494</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <f>11.084-53.653+32.336-M15-L15-K15</f>
         <v>43.779999999999994</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <f>1.813-18.003-27.455</f>
         <v>-43.644999999999996</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15">
         <f>+R14/main!L3</f>
-        <v>36.532262630355277</v>
+        <v>42.034689757784356</v>
       </c>
       <c r="W15" s="1">
         <f>3.032-21.894-4.846</f>
@@ -2269,27 +2271,27 @@
         <v>-10.233000000000004</v>
       </c>
       <c r="Z15" s="1">
-        <f>+V28*0.05</f>
+        <f t="shared" ref="Z15:AE15" si="14">+V30*0.05</f>
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <f>+W28*0.05</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <f>+X28*0.05</f>
+        <f t="shared" si="14"/>
         <v>-2.9483500000000009</v>
       </c>
       <c r="AC15" s="1">
-        <f>+Y28*0.05</f>
+        <f t="shared" si="14"/>
         <v>9.0509500000000003</v>
       </c>
       <c r="AD15" s="1">
-        <f>+Z28*0.05</f>
+        <f t="shared" si="14"/>
         <v>-28.033201999999996</v>
       </c>
       <c r="AE15" s="1">
-        <f>+AA28*0.05</f>
+        <f t="shared" si="14"/>
         <v>-57.032911699999978</v>
       </c>
       <c r="AF15" s="1"/>
@@ -2332,1278 +2334,1447 @@
       <c r="BQ15" s="1"/>
     </row>
     <row r="16" spans="2:69 16384:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <f>+F14+F15</f>
         <v>-54.239999999999995</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <f>+H14+H15</f>
         <v>-55.658999999999992</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f>+I14+I15</f>
         <v>-57.935000000000016</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f>+K14+K15</f>
         <v>-64.732000000000014</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f>+L14+L15</f>
         <v>-543.005</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f>+M14+M15</f>
         <v>-74.110000000000014</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f>+N14+N15</f>
         <v>-6.920000000000023</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <f>+O14+O15</f>
         <v>-112.33400000000002</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="8">
         <f>+R15/main!L2-1</f>
-        <v>-0.37996838712906866</v>
-      </c>
-      <c r="W16" s="12">
+        <v>-0.28658028245444067</v>
+      </c>
+      <c r="W16" s="9">
         <f>+W14+W15</f>
         <v>-289.14</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="9">
         <f>+X14+X15</f>
         <v>-213.52900000000002</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="9">
         <f>+Y14+Y15</f>
         <v>-701.31499999999983</v>
       </c>
-      <c r="Z16" s="12">
-        <f t="shared" ref="Z16:AE16" si="14">+Z14+Z15</f>
+      <c r="Z16" s="9">
+        <f t="shared" ref="Z16:AE16" si="15">+Z14+Z15</f>
         <v>-618.06919999999991</v>
       </c>
-      <c r="AA16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AA16" s="9">
+        <f t="shared" si="15"/>
         <v>-483.32849499999975</v>
       </c>
-      <c r="AB16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AB16" s="9">
+        <f t="shared" si="15"/>
         <v>-263.64927074999957</v>
       </c>
-      <c r="AC16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AC16" s="9">
+        <f t="shared" si="15"/>
         <v>94.821865237500276</v>
       </c>
-      <c r="AD16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AD16" s="9">
+        <f t="shared" si="15"/>
         <v>462.18454530875061</v>
       </c>
-      <c r="AE16" s="12">
-        <f t="shared" si="14"/>
+      <c r="AE16" s="9">
+        <f t="shared" si="15"/>
         <v>1003.3128148113759</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-    </row>
-    <row r="17" spans="2:69" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+    </row>
+    <row r="17" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <f>-0.266-M17-L17-K17</f>
         <v>-0.12200000000000001</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <v>46.18</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="1">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="1">
         <v>-0.28799999999999998</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="1">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="1">
         <f>+Z16*0.2</f>
         <v>-123.61383999999998</v>
       </c>
-      <c r="AA17" s="11">
-        <f t="shared" ref="AA17:AE17" si="15">+AA16*0.2</f>
+      <c r="AA17" s="1">
+        <f t="shared" ref="AA17:AE17" si="16">+AA16*0.2</f>
         <v>-96.665698999999961</v>
       </c>
-      <c r="AB17" s="11">
-        <f t="shared" si="15"/>
+      <c r="AB17" s="1">
+        <f t="shared" si="16"/>
         <v>-52.729854149999916</v>
       </c>
-      <c r="AC17" s="11">
-        <f t="shared" si="15"/>
+      <c r="AC17" s="1">
+        <f t="shared" si="16"/>
         <v>18.964373047500057</v>
       </c>
-      <c r="AD17" s="11">
-        <f t="shared" si="15"/>
+      <c r="AD17" s="1">
+        <f t="shared" si="16"/>
         <v>92.436909061750129</v>
       </c>
-      <c r="AE17" s="11">
-        <f t="shared" si="15"/>
+      <c r="AE17" s="1">
+        <f t="shared" si="16"/>
         <v>200.66256296227519</v>
       </c>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="11"/>
-      <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
-      <c r="BL17" s="11"/>
-      <c r="BM17" s="11"/>
-      <c r="BN17" s="11"/>
-      <c r="BO17" s="11"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="11"/>
-    </row>
-    <row r="18" spans="2:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
+    </row>
+    <row r="18" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <f>+F16+F17</f>
         <v>-54.250999999999998</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <f>+H16+H17</f>
         <v>-55.661999999999992</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f>+I16+I17</f>
         <v>-58.000000000000014</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <f>+K16+K17</f>
         <v>-64.743000000000009</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f>+L16+L17</f>
         <v>-543.1</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f>+M16+M17</f>
         <v>-74.14800000000001</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>+N16+N17</f>
         <v>-7.0420000000000229</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f>+O16+O17</f>
         <v>-66.154000000000025</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="12">
-        <f t="shared" ref="W18:AJ18" si="16">+W16+W17</f>
+      <c r="W18" s="9">
+        <f t="shared" ref="W18:AE18" si="17">+W16+W17</f>
         <v>-289.20599999999996</v>
       </c>
-      <c r="X18" s="12">
-        <f t="shared" si="16"/>
+      <c r="X18" s="9">
+        <f t="shared" si="17"/>
         <v>-213.81700000000004</v>
       </c>
-      <c r="Y18" s="12">
-        <f t="shared" si="16"/>
+      <c r="Y18" s="9">
+        <f t="shared" si="17"/>
         <v>-701.58099999999979</v>
       </c>
-      <c r="Z18" s="12">
-        <f t="shared" si="16"/>
+      <c r="Z18" s="9">
+        <f t="shared" si="17"/>
         <v>-741.68303999999989</v>
       </c>
-      <c r="AA18" s="12">
-        <f t="shared" si="16"/>
+      <c r="AA18" s="9">
+        <f t="shared" si="17"/>
         <v>-579.99419399999965</v>
       </c>
-      <c r="AB18" s="12">
-        <f t="shared" si="16"/>
+      <c r="AB18" s="9">
+        <f t="shared" si="17"/>
         <v>-316.37912489999951</v>
       </c>
-      <c r="AC18" s="12">
-        <f t="shared" si="16"/>
+      <c r="AC18" s="9">
+        <f t="shared" si="17"/>
         <v>113.78623828500034</v>
       </c>
-      <c r="AD18" s="12">
-        <f t="shared" si="16"/>
+      <c r="AD18" s="9">
+        <f t="shared" si="17"/>
         <v>554.62145437050071</v>
       </c>
-      <c r="AE18" s="12">
-        <f t="shared" si="16"/>
+      <c r="AE18" s="9">
+        <f t="shared" si="17"/>
         <v>1203.9753777736512</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AF18" s="9">
         <f>+AE18*(1-$R$12)</f>
         <v>1191.9356239959147</v>
       </c>
-      <c r="AG18" s="12">
-        <f t="shared" ref="AG18:BQ18" si="17">+AF18*(1-$R$12)</f>
+      <c r="AG18" s="9">
+        <f t="shared" ref="AG18:BQ18" si="18">+AF18*(1-$R$12)</f>
         <v>1180.0162677559556</v>
       </c>
-      <c r="AH18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AH18" s="9">
+        <f t="shared" si="18"/>
         <v>1168.2161050783961</v>
       </c>
-      <c r="AI18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AI18" s="9">
+        <f t="shared" si="18"/>
         <v>1156.5339440276123</v>
       </c>
-      <c r="AJ18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AJ18" s="9">
+        <f t="shared" si="18"/>
         <v>1144.9686045873361</v>
       </c>
-      <c r="AK18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AK18" s="9">
+        <f t="shared" si="18"/>
         <v>1133.5189185414627</v>
       </c>
-      <c r="AL18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AL18" s="9">
+        <f t="shared" si="18"/>
         <v>1122.1837293560479</v>
       </c>
-      <c r="AM18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AM18" s="9">
+        <f t="shared" si="18"/>
         <v>1110.9618920624875</v>
       </c>
-      <c r="AN18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AN18" s="9">
+        <f t="shared" si="18"/>
         <v>1099.8522731418627</v>
       </c>
-      <c r="AO18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AO18" s="9">
+        <f t="shared" si="18"/>
         <v>1088.853750410444</v>
       </c>
-      <c r="AP18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AP18" s="9">
+        <f t="shared" si="18"/>
         <v>1077.9652129063395</v>
       </c>
-      <c r="AQ18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AQ18" s="9">
+        <f t="shared" si="18"/>
         <v>1067.1855607772761</v>
       </c>
-      <c r="AR18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AR18" s="9">
+        <f t="shared" si="18"/>
         <v>1056.5137051695033</v>
       </c>
-      <c r="AS18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AS18" s="9">
+        <f t="shared" si="18"/>
         <v>1045.9485681178082</v>
       </c>
-      <c r="AT18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AT18" s="9">
+        <f t="shared" si="18"/>
         <v>1035.48908243663</v>
       </c>
-      <c r="AU18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AU18" s="9">
+        <f t="shared" si="18"/>
         <v>1025.1341916122637</v>
       </c>
-      <c r="AV18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AV18" s="9">
+        <f t="shared" si="18"/>
         <v>1014.8828496961411</v>
       </c>
-      <c r="AW18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AW18" s="9">
+        <f t="shared" si="18"/>
         <v>1004.7340211991797</v>
       </c>
-      <c r="AX18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AX18" s="9">
+        <f t="shared" si="18"/>
         <v>994.68668098718786</v>
       </c>
-      <c r="AY18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AY18" s="9">
+        <f t="shared" si="18"/>
         <v>984.73981417731602</v>
       </c>
-      <c r="AZ18" s="12">
-        <f t="shared" si="17"/>
+      <c r="AZ18" s="9">
+        <f t="shared" si="18"/>
         <v>974.89241603554285</v>
       </c>
-      <c r="BA18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BA18" s="9">
+        <f t="shared" si="18"/>
         <v>965.14349187518746</v>
       </c>
-      <c r="BB18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BB18" s="9">
+        <f t="shared" si="18"/>
         <v>955.49205695643559</v>
       </c>
-      <c r="BC18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BC18" s="9">
+        <f t="shared" si="18"/>
         <v>945.9371363868712</v>
       </c>
-      <c r="BD18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BD18" s="9">
+        <f t="shared" si="18"/>
         <v>936.47776502300246</v>
       </c>
-      <c r="BE18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BE18" s="9">
+        <f t="shared" si="18"/>
         <v>927.11298737277241</v>
       </c>
-      <c r="BF18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BF18" s="9">
+        <f t="shared" si="18"/>
         <v>917.84185749904464</v>
       </c>
-      <c r="BG18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BG18" s="9">
+        <f t="shared" si="18"/>
         <v>908.66343892405416</v>
       </c>
-      <c r="BH18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BH18" s="9">
+        <f t="shared" si="18"/>
         <v>899.57680453481362</v>
       </c>
-      <c r="BI18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BI18" s="9">
+        <f t="shared" si="18"/>
         <v>890.58103648946542</v>
       </c>
-      <c r="BJ18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BJ18" s="9">
+        <f t="shared" si="18"/>
         <v>881.67522612457071</v>
       </c>
-      <c r="BK18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BK18" s="9">
+        <f t="shared" si="18"/>
         <v>872.858473863325</v>
       </c>
-      <c r="BL18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BL18" s="9">
+        <f t="shared" si="18"/>
         <v>864.12988912469177</v>
       </c>
-      <c r="BM18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BM18" s="9">
+        <f t="shared" si="18"/>
         <v>855.48859023344482</v>
       </c>
-      <c r="BN18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BN18" s="9">
+        <f t="shared" si="18"/>
         <v>846.93370433111033</v>
       </c>
-      <c r="BO18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BO18" s="9">
+        <f t="shared" si="18"/>
         <v>838.46436728779918</v>
       </c>
-      <c r="BP18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BP18" s="9">
+        <f t="shared" si="18"/>
         <v>830.07972361492114</v>
       </c>
-      <c r="BQ18" s="12">
-        <f t="shared" si="17"/>
+      <c r="BQ18" s="9">
+        <f t="shared" si="18"/>
         <v>821.77892637877187</v>
       </c>
     </row>
-    <row r="19" spans="2:69" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <f>+F18/F20</f>
         <v>-0.85800819244334081</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="5">
         <f>+H18/H20</f>
         <v>-0.87814343861420485</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="5">
         <f>+I18/I20</f>
         <v>-0.91647441772271931</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <f>+K18/K20</f>
         <v>-1.0206999842345894</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <f>+L18/L20</f>
         <v>-6.597023990282417</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <f>+M18/M20</f>
         <v>-0.44772117962466496</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <f>+N18/N20</f>
         <v>-5.8757269564201811E-2</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="5">
         <f>+O18/O20</f>
         <v>-0.38798634652153019</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="1">
         <f>+W18/W20</f>
         <v>-4.5882408935144054</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="1">
         <f>+X18/X20</f>
         <v>-3.3775155593466661</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="1">
         <f>+Y18/Y20</f>
         <v>-5.8538744586938547</v>
       </c>
-      <c r="Z19" s="11">
-        <f t="shared" ref="Z19:AE19" si="18">+Z18/Z20</f>
+      <c r="Z19" s="1">
+        <f t="shared" ref="Z19:AE19" si="19">+Z18/Z20</f>
         <v>-6.1884791696217727</v>
       </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="18"/>
+      <c r="AA19" s="1">
+        <f t="shared" si="19"/>
         <v>-4.8393744962411001</v>
       </c>
-      <c r="AB19" s="11">
-        <f t="shared" si="18"/>
+      <c r="AB19" s="1">
+        <f t="shared" si="19"/>
         <v>-2.6398144740465042</v>
       </c>
-      <c r="AC19" s="11">
-        <f t="shared" si="18"/>
+      <c r="AC19" s="1">
+        <f t="shared" si="19"/>
         <v>0.94941333081627988</v>
       </c>
-      <c r="AD19" s="11">
-        <f t="shared" si="18"/>
+      <c r="AD19" s="1">
+        <f t="shared" si="19"/>
         <v>4.6276686027459615</v>
       </c>
-      <c r="AE19" s="11">
-        <f t="shared" si="18"/>
+      <c r="AE19" s="1">
+        <f t="shared" si="19"/>
         <v>10.045769074198793</v>
       </c>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-    </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+    </row>
+    <row r="20" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
         <v>63.228999999999999</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>63.386000000000003</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>63.286000000000001</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>63.43</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>82.325000000000003</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>165.61199999999999</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>119.849</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <v>170.506</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="1">
         <v>63.031999999999996</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="1">
         <v>63.305999999999997</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="1">
         <v>119.849</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="1">
         <f>+Y20</f>
         <v>119.849</v>
       </c>
-      <c r="AA20" s="11">
-        <f t="shared" ref="AA20:AE20" si="19">+Z20</f>
+      <c r="AA20" s="1">
+        <f t="shared" ref="AA20:AE20" si="20">+Z20</f>
         <v>119.849</v>
       </c>
-      <c r="AB20" s="11">
-        <f t="shared" si="19"/>
+      <c r="AB20" s="1">
+        <f t="shared" si="20"/>
         <v>119.849</v>
       </c>
-      <c r="AC20" s="11">
-        <f t="shared" si="19"/>
+      <c r="AC20" s="1">
+        <f t="shared" si="20"/>
         <v>119.849</v>
       </c>
-      <c r="AD20" s="11">
-        <f t="shared" si="19"/>
+      <c r="AD20" s="1">
+        <f t="shared" si="20"/>
         <v>119.849</v>
       </c>
-      <c r="AE20" s="11">
-        <f t="shared" si="19"/>
+      <c r="AE20" s="1">
+        <f t="shared" si="20"/>
         <v>119.849</v>
       </c>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="11"/>
-      <c r="BB20" s="11"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="11"/>
-      <c r="BE20" s="11"/>
-      <c r="BF20" s="11"/>
-      <c r="BG20" s="11"/>
-      <c r="BH20" s="11"/>
-      <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
-      <c r="BK20" s="11"/>
-      <c r="BL20" s="11"/>
-      <c r="BM20" s="11"/>
-      <c r="BN20" s="11"/>
-      <c r="BO20" s="11"/>
-      <c r="BP20" s="11"/>
-      <c r="BQ20" s="11"/>
-    </row>
-    <row r="21" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" t="s">
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+      <c r="BH20" s="1"/>
+      <c r="BI20" s="1"/>
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+    </row>
+    <row r="21" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
+        <f>+NPV(R13,AA18:BQ18)</f>
+        <v>7028.5296506075865</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>+NPV(R13,BA18:BQ18)</f>
+        <v>7310.7705279332285</v>
+      </c>
+      <c r="AB21" s="1">
+        <f>+NPV(R13,AB18:BQ18)</f>
+        <v>8311.3768096683452</v>
+      </c>
+      <c r="AC21" s="1">
+        <f>+NPV(R13,AD18:BQ18)</f>
+        <v>10290.9967388037</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BH21" s="1"/>
+      <c r="BI21" s="1"/>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+    </row>
+    <row r="22" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="6">
+        <f>+IRR(Z18:AE18)</f>
+        <v>3.5379732783380691E-2</v>
+      </c>
+      <c r="AA22" s="6">
+        <f>+IRR(AA18:AF18)</f>
+        <v>0.39477366637783584</v>
+      </c>
+      <c r="AB22" s="6">
+        <f>+IRR(AB18:AG18)</f>
+        <v>1.2938972910807442</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BI22" s="1"/>
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+    </row>
+    <row r="23" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="AA23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="8">
-        <f t="shared" ref="I22:N22" si="20">+L5/H5-1</f>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:M24" si="21">+L5/H5-1</f>
         <v>0.25338136342010453</v>
       </c>
-      <c r="M22" s="8">
-        <f t="shared" si="20"/>
+      <c r="M24" s="6">
+        <f t="shared" si="21"/>
         <v>0.32980295023409312</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O24" s="6">
         <f>+O5/K5-1</f>
         <v>0.75378548895899056</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="8">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6">
         <f>+F9/F5</f>
         <v>0.50985089600774924</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <f>+H9/H5</f>
         <v>0.54108611432066878</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I25" s="6">
         <f>+I9/I5</f>
         <v>0.54408813952975588</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
         <f>+K9/K5</f>
         <v>0.53282814428747771</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L25" s="6">
         <f>+L9/L5</f>
         <v>0.53058703733829804</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M25" s="6">
         <f>+M9/M5</f>
         <v>0.58497532181131828</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N25" s="6">
         <f>+N9/N5</f>
         <v>0.60825194339246547</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O25" s="6">
         <f>+O9/O5</f>
         <v>0.60688519846561106</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="X23" s="8">
-        <f t="shared" ref="X23:Y23" si="21">+X5/W5-1</f>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="X25" s="6">
+        <f t="shared" ref="X25" si="22">+X5/W5-1</f>
         <v>0.65848166951488762</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y25" s="6">
         <f>+Y5/X5-1</f>
         <v>0.30381593841548482</v>
       </c>
-      <c r="Z23" s="8">
-        <f t="shared" ref="Z23:AE23" si="22">+Z5/Y5-1</f>
+      <c r="Z25" s="6">
+        <f t="shared" ref="Z25:AE25" si="23">+Z5/Y5-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AA23" s="8">
-        <f t="shared" si="22"/>
+      <c r="AA25" s="6">
+        <f t="shared" si="23"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AB23" s="8">
-        <f t="shared" si="22"/>
+      <c r="AB25" s="6">
+        <f t="shared" si="23"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AC23" s="8">
-        <f t="shared" si="22"/>
+      <c r="AC25" s="6">
+        <f t="shared" si="23"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="22"/>
+      <c r="AD25" s="6">
+        <f t="shared" si="23"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AE23" s="8">
-        <f t="shared" si="22"/>
+      <c r="AE25" s="6">
+        <f t="shared" si="23"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="26" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="8">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6">
         <f>+F14/F5</f>
         <v>-0.46582889365529634</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <f>+H14/H5</f>
         <v>-0.34087768186864215</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I26" s="6">
         <f>+I14/I5</f>
         <v>-0.32919291179432164</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <f>+K14/K5</f>
         <v>-0.36534083116170635</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L26" s="6">
         <f>+L14/L5</f>
         <v>-3.1388030294814091</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M26" s="6">
         <f>+M14/M5</f>
         <v>-0.29633723725881428</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N26" s="6">
         <f>+N14/N5</f>
         <v>-0.25264102053019749</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O26" s="6">
         <f>+O14/O5</f>
         <v>-0.26859234291479145</v>
       </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="8">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6">
         <f>+F17/F16</f>
         <v>2.028023598820059E-4</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H27" s="6">
         <f>+H17/H16</f>
         <v>5.3899638872419567E-5</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I27" s="6">
         <f>+I17/I16</f>
         <v>1.1219470095797011E-3</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
         <f>+K17/K16</f>
         <v>1.6993140950380024E-4</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L27" s="6">
         <f>+L17/L16</f>
         <v>1.7495234850507823E-4</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M27" s="6">
         <f>+M17/M16</f>
         <v>5.1275131561192807E-4</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N27" s="6">
         <f>+N17/N16</f>
         <v>1.7630057803468151E-2</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O27" s="6">
         <f>+O17/O16</f>
         <v>-0.41109548311285982</v>
       </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="8" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" ref="L26" si="23">+L18/H18</f>
+      <c r="L28" s="6">
+        <f t="shared" ref="L28" si="24">+L18/H18</f>
         <v>9.7571053860802728</v>
       </c>
-      <c r="M26" s="8">
-        <f t="shared" ref="M26" si="24">+M18/I18</f>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28" si="25">+M18/I18</f>
         <v>1.278413793103448</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O28" s="6">
         <f>+O18/K18</f>
         <v>1.0217938618846827</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-    </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-    </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7">
-        <f>+X30-X41</f>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5">
+        <f>+X32-X43</f>
         <v>-58.967000000000013</v>
       </c>
-      <c r="Y28" s="7">
-        <f>+Y30-Y41</f>
+      <c r="Y30" s="5">
+        <f>+Y32-Y43</f>
         <v>181.01900000000001</v>
       </c>
-      <c r="Z28" s="7">
-        <f>+Y28+Z18</f>
+      <c r="Z30" s="5">
+        <f>+Y30+Z18</f>
         <v>-560.66403999999989</v>
       </c>
-      <c r="AA28" s="7">
-        <f t="shared" ref="AA28:AJ28" si="25">+Z28+AA18</f>
+      <c r="AA30" s="5">
+        <f t="shared" ref="AA30:AJ30" si="26">+Z30+AA18</f>
         <v>-1140.6582339999995</v>
       </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AB30" s="5">
+        <f t="shared" si="26"/>
         <v>-1457.0373588999992</v>
       </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AC30" s="5">
+        <f t="shared" si="26"/>
         <v>-1343.2511206149989</v>
       </c>
-      <c r="AD28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AD30" s="5">
+        <f t="shared" si="26"/>
         <v>-788.62966624449814</v>
       </c>
-      <c r="AE28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AE30" s="5">
+        <f t="shared" si="26"/>
         <v>415.34571152915305</v>
       </c>
-      <c r="AF28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AF30" s="5">
+        <f t="shared" si="26"/>
         <v>1607.2813355250678</v>
       </c>
-      <c r="AG28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AG30" s="5">
+        <f t="shared" si="26"/>
         <v>2787.2976032810234</v>
       </c>
-      <c r="AH28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AH30" s="5">
+        <f t="shared" si="26"/>
         <v>3955.5137083594195</v>
       </c>
-      <c r="AI28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AI30" s="5">
+        <f t="shared" si="26"/>
         <v>5112.047652387032</v>
       </c>
-      <c r="AJ28" s="7">
-        <f t="shared" si="25"/>
+      <c r="AJ30" s="5">
+        <f t="shared" si="26"/>
         <v>6257.0162569743679</v>
       </c>
     </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
+    <row r="31" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="32" spans="1:69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X30">
+      <c r="X32">
         <f>165.767+31.807</f>
         <v>197.57399999999998</v>
       </c>
-      <c r="Y30">
+      <c r="Y32">
         <f>340.954+107.309</f>
         <v>448.26300000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="33" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="Y31">
+      <c r="Y33">
         <v>154.81899999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    <row r="34" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>38.386000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="35" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="Y33">
+      <c r="Y35">
         <v>26.135000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="36" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y34">
+      <c r="Y36">
         <v>58.055999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="Y35">
+      <c r="Y37">
         <f>73.343+11.716</f>
         <v>85.058999999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+    <row r="38" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y36">
+      <c r="Y38">
         <f>8.305+91.45</f>
         <v>99.754999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="39" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <v>14.762</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+    <row r="40" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y38">
+      <c r="Y40">
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+    <row r="41" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="2">
-        <f>+SUM(Y30:Y38)</f>
+      <c r="Y41" s="2">
+        <f>+SUM(Y32:Y40)</f>
         <v>926.11599999999987</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="43" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X41">
+      <c r="X43">
         <v>256.541</v>
       </c>
-      <c r="Y41">
+      <c r="Y43">
         <v>267.24400000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    <row r="44" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y42">
+      <c r="Y44">
         <v>53.804000000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="45" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="Y43">
+      <c r="Y45">
         <v>130.40700000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+    <row r="46" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y44">
+      <c r="Y46">
         <f>75.981+15.955</f>
         <v>91.935999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="4" t="s">
+    <row r="47" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y45">
+      <c r="Y47">
         <v>6.9640000000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+    <row r="48" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y46">
+      <c r="Y48">
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y47">
+      <c r="Y49">
         <v>26.199000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y48">
+      <c r="Y50">
         <v>168.19200000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y49">
+      <c r="Y51">
         <v>15.98</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y50">
+      <c r="Y52">
         <v>70.45</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y51">
+      <c r="Y53">
         <f>23.932+6.71</f>
         <v>30.641999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
+    <row r="54" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y52" s="2">
-        <f>+SUM(Y41:Y51)</f>
+      <c r="Y54" s="2">
+        <f>+SUM(Y43:Y53)</f>
         <v>863.31800000000021</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="W54">
+      <c r="W56">
         <v>-168.20400000000001</v>
       </c>
-      <c r="X54">
+      <c r="X56">
         <v>-214.339</v>
       </c>
-      <c r="Y54">
+      <c r="Y56">
         <v>-189.04499999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W55">
+      <c r="W57">
         <v>-57.939</v>
       </c>
-      <c r="X55">
+      <c r="X57">
         <v>40.314999999999998</v>
       </c>
-      <c r="Y55">
+      <c r="Y57">
         <v>-130.392</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W56">
+      <c r="W58">
         <v>251.39099999999999</v>
       </c>
-      <c r="X56">
+      <c r="X58">
         <v>117.547</v>
       </c>
-      <c r="Y56">
+      <c r="Y58">
         <v>494.32900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="W57">
-        <f t="shared" ref="W57:X57" si="26">+W54+W55+W56</f>
+      <c r="W59">
+        <f t="shared" ref="W59:X59" si="27">+W56+W57+W58</f>
         <v>25.24799999999999</v>
       </c>
-      <c r="X57">
-        <f t="shared" si="26"/>
+      <c r="X59">
+        <f t="shared" si="27"/>
         <v>-56.477000000000004</v>
       </c>
-      <c r="Y57">
-        <f>+Y54+Y55+Y56</f>
+      <c r="Y59">
+        <f>+Y56+Y57+Y58</f>
         <v>174.892</v>
       </c>
     </row>
